--- a/temp_doc/PESERTA UJIAN FIX ADMIN.xlsx
+++ b/temp_doc/PESERTA UJIAN FIX ADMIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A0A081-DBA5-0E4F-BBE9-C8C1117512CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F37B2C-3DBE-D24C-A3A3-45A2FE076BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
   </bookViews>
@@ -6723,7 +6723,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6779,7 +6779,7 @@
       <c r="F2" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
       <c r="F3" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -6825,7 +6825,7 @@
       <c r="F4" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -6848,7 +6848,7 @@
       <c r="F5" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       <c r="F6" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -6894,7 +6894,7 @@
       <c r="F7" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -6917,7 +6917,7 @@
       <c r="F8" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       <c r="F9" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -6963,7 +6963,7 @@
       <c r="F10" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -6986,7 +6986,7 @@
       <c r="F11" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
       <c r="F12" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7032,7 +7032,7 @@
       <c r="F13" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7055,7 +7055,7 @@
       <c r="F14" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
       <c r="F15" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7101,7 +7101,7 @@
       <c r="F16" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7124,7 +7124,7 @@
       <c r="F17" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       <c r="F18" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7170,7 +7170,7 @@
       <c r="F19" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7193,7 +7193,7 @@
       <c r="F20" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7216,7 +7216,7 @@
       <c r="F21" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7239,7 +7239,7 @@
       <c r="F22" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7262,7 +7262,7 @@
       <c r="F23" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       <c r="F24" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7308,7 +7308,7 @@
       <c r="F25" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7331,7 +7331,7 @@
       <c r="F26" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7354,7 +7354,7 @@
       <c r="F27" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       <c r="F28" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7400,7 +7400,7 @@
       <c r="F29" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       <c r="F30" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7446,7 +7446,7 @@
       <c r="F31" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7469,7 +7469,7 @@
       <c r="F32" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       <c r="F33" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7515,7 +7515,7 @@
       <c r="F34" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7538,7 +7538,7 @@
       <c r="F35" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       <c r="F36" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7584,7 +7584,7 @@
       <c r="F37" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7607,7 +7607,7 @@
       <c r="F38" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       <c r="F39" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7653,7 +7653,7 @@
       <c r="F40" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       <c r="F41" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7699,7 +7699,7 @@
       <c r="F42" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7722,7 +7722,7 @@
       <c r="F43" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7745,7 +7745,7 @@
       <c r="F44" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       <c r="F45" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       <c r="F46" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7814,7 +7814,7 @@
       <c r="F47" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       <c r="F48" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7860,7 +7860,7 @@
       <c r="F49" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7883,7 +7883,7 @@
       <c r="F50" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
       <c r="F51" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7929,7 +7929,7 @@
       <c r="F52" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7952,7 +7952,7 @@
       <c r="F53" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7975,7 +7975,7 @@
       <c r="F54" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -7998,7 +7998,7 @@
       <c r="F55" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8021,7 +8021,7 @@
       <c r="F56" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8044,7 +8044,7 @@
       <c r="F57" s="2" t="s">
         <v>1106</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8067,7 +8067,7 @@
       <c r="F58" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8090,7 +8090,7 @@
       <c r="F59" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8113,7 +8113,7 @@
       <c r="F60" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8136,7 +8136,7 @@
       <c r="F61" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8159,7 +8159,7 @@
       <c r="F62" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8182,7 +8182,7 @@
       <c r="F63" s="2" t="s">
         <v>1112</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       <c r="F64" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8228,7 +8228,7 @@
       <c r="F65" s="2" t="s">
         <v>1114</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8251,7 +8251,7 @@
       <c r="F66" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8274,7 +8274,7 @@
       <c r="F67" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8297,7 +8297,7 @@
       <c r="F68" s="2" t="s">
         <v>1117</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8320,7 +8320,7 @@
       <c r="F69" s="2" t="s">
         <v>1118</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8343,7 +8343,7 @@
       <c r="F70" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8366,7 +8366,7 @@
       <c r="F71" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8389,7 +8389,7 @@
       <c r="F72" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8412,7 +8412,7 @@
       <c r="F73" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8435,7 +8435,7 @@
       <c r="F74" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8458,7 +8458,7 @@
       <c r="F75" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
       <c r="F76" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8504,7 +8504,7 @@
       <c r="F77" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8527,7 +8527,7 @@
       <c r="F78" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8550,7 +8550,7 @@
       <c r="F79" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8573,7 +8573,7 @@
       <c r="F80" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       <c r="F81" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8619,7 +8619,7 @@
       <c r="F82" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8642,7 +8642,7 @@
       <c r="F83" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8665,7 +8665,7 @@
       <c r="F84" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8688,7 +8688,7 @@
       <c r="F85" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       <c r="F86" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8734,7 +8734,7 @@
       <c r="F87" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8757,7 +8757,7 @@
       <c r="F88" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8780,7 +8780,7 @@
       <c r="F89" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8803,7 +8803,7 @@
       <c r="F90" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8826,7 +8826,7 @@
       <c r="F91" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8849,7 +8849,7 @@
       <c r="F92" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8872,7 +8872,7 @@
       <c r="F93" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G93" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8895,7 +8895,7 @@
       <c r="F94" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G94" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8918,7 +8918,7 @@
       <c r="F95" s="2" t="s">
         <v>1144</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G95" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       <c r="F96" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8964,7 +8964,7 @@
       <c r="F97" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G97" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -8987,7 +8987,7 @@
       <c r="F98" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G98" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9010,7 +9010,7 @@
       <c r="F99" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9033,7 +9033,7 @@
       <c r="F100" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G100" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9056,7 +9056,7 @@
       <c r="F101" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9079,7 +9079,7 @@
       <c r="F102" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9102,7 +9102,7 @@
       <c r="F103" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9125,7 +9125,7 @@
       <c r="F104" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="G104" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9148,7 +9148,7 @@
       <c r="F105" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="G105" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
       <c r="F106" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9194,7 +9194,7 @@
       <c r="F107" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="G107" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9217,7 +9217,7 @@
       <c r="F108" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="G108" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9240,7 +9240,7 @@
       <c r="F109" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="G109" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9263,7 +9263,7 @@
       <c r="F110" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="G110" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9286,7 +9286,7 @@
       <c r="F111" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G111" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9309,7 +9309,7 @@
       <c r="F112" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="G112" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
       <c r="F113" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="G113" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9355,7 +9355,7 @@
       <c r="F114" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G114" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
       <c r="F115" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="G115" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9401,7 +9401,7 @@
       <c r="F116" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="G116" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9424,7 +9424,7 @@
       <c r="F117" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G117" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9447,7 +9447,7 @@
       <c r="F118" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="G118" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9470,7 +9470,7 @@
       <c r="F119" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="G119" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9493,7 +9493,7 @@
       <c r="F120" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="G120" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9516,7 +9516,7 @@
       <c r="F121" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G121" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9539,7 +9539,7 @@
       <c r="F122" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="G122" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9562,7 +9562,7 @@
       <c r="F123" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="G123" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9585,7 +9585,7 @@
       <c r="F124" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="G124" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
       <c r="F125" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G125" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       <c r="F126" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G126" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9654,7 +9654,7 @@
       <c r="F127" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G127" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9677,7 +9677,7 @@
       <c r="F128" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="G128" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       <c r="F129" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="G129" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
       <c r="F130" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="G130" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9746,7 +9746,7 @@
       <c r="F131" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="G131" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       <c r="F132" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="G132" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9792,7 +9792,7 @@
       <c r="F133" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="G133" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9815,7 +9815,7 @@
       <c r="F134" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="G134" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9838,7 +9838,7 @@
       <c r="F135" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="G135" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9861,7 +9861,7 @@
       <c r="F136" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="G136" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9884,7 +9884,7 @@
       <c r="F137" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="G137" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9907,7 +9907,7 @@
       <c r="F138" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="G138" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9930,7 +9930,7 @@
       <c r="F139" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="G139" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
       <c r="F140" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="G140" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9976,7 +9976,7 @@
       <c r="F141" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="G141" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -9999,7 +9999,7 @@
       <c r="F142" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="G142" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10022,7 +10022,7 @@
       <c r="F143" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="G143" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10045,7 +10045,7 @@
       <c r="F144" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="G144" s="2" t="s">
+      <c r="G144" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       <c r="F145" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="G145" s="2" t="s">
+      <c r="G145" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10091,7 +10091,7 @@
       <c r="F146" s="2" t="s">
         <v>1195</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="G146" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10114,7 +10114,7 @@
       <c r="F147" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="G147" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10137,7 +10137,7 @@
       <c r="F148" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="G148" s="2" t="s">
+      <c r="G148" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10160,7 +10160,7 @@
       <c r="F149" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="G149" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10183,7 +10183,7 @@
       <c r="F150" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="G150" s="2" t="s">
+      <c r="G150" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       <c r="F151" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="G151" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10229,7 +10229,7 @@
       <c r="F152" s="2" t="s">
         <v>1201</v>
       </c>
-      <c r="G152" s="2" t="s">
+      <c r="G152" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10252,7 +10252,7 @@
       <c r="F153" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="G153" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10275,7 +10275,7 @@
       <c r="F154" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="G154" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10298,7 +10298,7 @@
       <c r="F155" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="G155" s="2" t="s">
+      <c r="G155" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10321,7 +10321,7 @@
       <c r="F156" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="G156" s="2" t="s">
+      <c r="G156" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10344,7 +10344,7 @@
       <c r="F157" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="G157" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10367,7 +10367,7 @@
       <c r="F158" s="2" t="s">
         <v>1207</v>
       </c>
-      <c r="G158" s="2" t="s">
+      <c r="G158" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10390,7 +10390,7 @@
       <c r="F159" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="G159" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       <c r="F160" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="G160" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10436,7 +10436,7 @@
       <c r="F161" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="G161" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       <c r="F162" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="G162" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10482,7 +10482,7 @@
       <c r="F163" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="G163" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10505,7 +10505,7 @@
       <c r="F164" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="G164" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
       <c r="F165" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="G165" s="2" t="s">
+      <c r="G165" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       <c r="F166" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="G166" s="2" t="s">
+      <c r="G166" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10574,7 +10574,7 @@
       <c r="F167" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="G167" s="2" t="s">
+      <c r="G167" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10597,7 +10597,7 @@
       <c r="F168" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="G168" s="2" t="s">
+      <c r="G168" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10620,7 +10620,7 @@
       <c r="F169" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="G169" s="2" t="s">
+      <c r="G169" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10643,7 +10643,7 @@
       <c r="F170" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="G170" s="2" t="s">
+      <c r="G170" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10666,7 +10666,7 @@
       <c r="F171" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="G171" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       <c r="F172" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="G172" s="2" t="s">
+      <c r="G172" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10712,7 +10712,7 @@
       <c r="F173" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="G173" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10735,7 +10735,7 @@
       <c r="F174" s="2" t="s">
         <v>1223</v>
       </c>
-      <c r="G174" s="2" t="s">
+      <c r="G174" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10758,7 +10758,7 @@
       <c r="F175" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="G175" s="2" t="s">
+      <c r="G175" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10781,7 +10781,7 @@
       <c r="F176" s="2" t="s">
         <v>1225</v>
       </c>
-      <c r="G176" s="2" t="s">
+      <c r="G176" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       <c r="F177" s="2" t="s">
         <v>1226</v>
       </c>
-      <c r="G177" s="2" t="s">
+      <c r="G177" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       <c r="F178" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="G178" s="2" t="s">
+      <c r="G178" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10850,7 +10850,7 @@
       <c r="F179" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="G179" s="2" t="s">
+      <c r="G179" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10873,7 +10873,7 @@
       <c r="F180" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="G180" s="2" t="s">
+      <c r="G180" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       <c r="F181" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="G181" s="2" t="s">
+      <c r="G181" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10919,7 +10919,7 @@
       <c r="F182" s="2" t="s">
         <v>1231</v>
       </c>
-      <c r="G182" s="2" t="s">
+      <c r="G182" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       <c r="F183" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="G183" s="2" t="s">
+      <c r="G183" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10965,7 +10965,7 @@
       <c r="F184" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="G184" s="2" t="s">
+      <c r="G184" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -10988,7 +10988,7 @@
       <c r="F185" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="G185" s="2" t="s">
+      <c r="G185" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       <c r="F186" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="G186" s="2" t="s">
+      <c r="G186" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11034,7 +11034,7 @@
       <c r="F187" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="G187" s="2" t="s">
+      <c r="G187" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11057,7 +11057,7 @@
       <c r="F188" s="2" t="s">
         <v>1237</v>
       </c>
-      <c r="G188" s="2" t="s">
+      <c r="G188" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11080,7 +11080,7 @@
       <c r="F189" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="G189" s="2" t="s">
+      <c r="G189" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11103,7 +11103,7 @@
       <c r="F190" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="G190" s="2" t="s">
+      <c r="G190" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11126,7 +11126,7 @@
       <c r="F191" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="G191" s="2" t="s">
+      <c r="G191" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11149,7 +11149,7 @@
       <c r="F192" s="2" t="s">
         <v>1241</v>
       </c>
-      <c r="G192" s="2" t="s">
+      <c r="G192" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11172,7 +11172,7 @@
       <c r="F193" s="2" t="s">
         <v>1242</v>
       </c>
-      <c r="G193" s="2" t="s">
+      <c r="G193" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11195,7 +11195,7 @@
       <c r="F194" s="2" t="s">
         <v>1243</v>
       </c>
-      <c r="G194" s="2" t="s">
+      <c r="G194" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11218,7 +11218,7 @@
       <c r="F195" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="G195" s="2" t="s">
+      <c r="G195" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       <c r="F196" s="2" t="s">
         <v>1245</v>
       </c>
-      <c r="G196" s="2" t="s">
+      <c r="G196" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11264,7 +11264,7 @@
       <c r="F197" s="2" t="s">
         <v>1246</v>
       </c>
-      <c r="G197" s="2" t="s">
+      <c r="G197" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11287,7 +11287,7 @@
       <c r="F198" s="2" t="s">
         <v>1247</v>
       </c>
-      <c r="G198" s="2" t="s">
+      <c r="G198" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11310,7 +11310,7 @@
       <c r="F199" s="2" t="s">
         <v>1248</v>
       </c>
-      <c r="G199" s="2" t="s">
+      <c r="G199" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11333,7 +11333,7 @@
       <c r="F200" s="2" t="s">
         <v>1249</v>
       </c>
-      <c r="G200" s="2" t="s">
+      <c r="G200" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11356,7 +11356,7 @@
       <c r="F201" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="G201" s="2" t="s">
+      <c r="G201" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11379,7 +11379,7 @@
       <c r="F202" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="G202" s="2" t="s">
+      <c r="G202" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11402,7 +11402,7 @@
       <c r="F203" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="G203" s="2" t="s">
+      <c r="G203" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11425,7 +11425,7 @@
       <c r="F204" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="G204" s="2" t="s">
+      <c r="G204" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11448,7 +11448,7 @@
       <c r="F205" s="2" t="s">
         <v>1254</v>
       </c>
-      <c r="G205" s="2" t="s">
+      <c r="G205" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11471,7 +11471,7 @@
       <c r="F206" s="2" t="s">
         <v>1255</v>
       </c>
-      <c r="G206" s="2" t="s">
+      <c r="G206" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11494,7 +11494,7 @@
       <c r="F207" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="G207" s="2" t="s">
+      <c r="G207" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11517,7 +11517,7 @@
       <c r="F208" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="G208" s="2" t="s">
+      <c r="G208" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11540,7 +11540,7 @@
       <c r="F209" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="G209" s="2" t="s">
+      <c r="G209" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11563,7 +11563,7 @@
       <c r="F210" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="G210" s="2" t="s">
+      <c r="G210" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11586,7 +11586,7 @@
       <c r="F211" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="G211" s="2" t="s">
+      <c r="G211" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11609,7 +11609,7 @@
       <c r="F212" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="G212" s="2" t="s">
+      <c r="G212" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11632,7 +11632,7 @@
       <c r="F213" s="2" t="s">
         <v>1262</v>
       </c>
-      <c r="G213" s="2" t="s">
+      <c r="G213" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11655,7 +11655,7 @@
       <c r="F214" s="2" t="s">
         <v>1263</v>
       </c>
-      <c r="G214" s="2" t="s">
+      <c r="G214" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11678,7 +11678,7 @@
       <c r="F215" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="G215" s="2" t="s">
+      <c r="G215" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11701,7 +11701,7 @@
       <c r="F216" s="2" t="s">
         <v>1265</v>
       </c>
-      <c r="G216" s="2" t="s">
+      <c r="G216" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11724,7 +11724,7 @@
       <c r="F217" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="G217" s="2" t="s">
+      <c r="G217" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11747,7 +11747,7 @@
       <c r="F218" s="2" t="s">
         <v>1267</v>
       </c>
-      <c r="G218" s="2" t="s">
+      <c r="G218" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11770,7 +11770,7 @@
       <c r="F219" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="G219" s="2" t="s">
+      <c r="G219" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11793,7 +11793,7 @@
       <c r="F220" s="2" t="s">
         <v>1269</v>
       </c>
-      <c r="G220" s="2" t="s">
+      <c r="G220" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11816,7 +11816,7 @@
       <c r="F221" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="G221" s="2" t="s">
+      <c r="G221" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11839,7 +11839,7 @@
       <c r="F222" s="2" t="s">
         <v>1271</v>
       </c>
-      <c r="G222" s="2" t="s">
+      <c r="G222" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11862,7 +11862,7 @@
       <c r="F223" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="G223" s="2" t="s">
+      <c r="G223" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11885,7 +11885,7 @@
       <c r="F224" s="2" t="s">
         <v>1273</v>
       </c>
-      <c r="G224" s="2" t="s">
+      <c r="G224" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11908,7 +11908,7 @@
       <c r="F225" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="G225" s="2" t="s">
+      <c r="G225" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11931,7 +11931,7 @@
       <c r="F226" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="G226" s="2" t="s">
+      <c r="G226" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11954,7 +11954,7 @@
       <c r="F227" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="G227" s="2" t="s">
+      <c r="G227" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -11977,7 +11977,7 @@
       <c r="F228" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="G228" s="2" t="s">
+      <c r="G228" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12000,7 +12000,7 @@
       <c r="F229" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="G229" s="2" t="s">
+      <c r="G229" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12023,7 +12023,7 @@
       <c r="F230" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="G230" s="2" t="s">
+      <c r="G230" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12046,7 +12046,7 @@
       <c r="F231" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="G231" s="2" t="s">
+      <c r="G231" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       <c r="F232" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="G232" s="2" t="s">
+      <c r="G232" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12092,7 +12092,7 @@
       <c r="F233" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="G233" s="2" t="s">
+      <c r="G233" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12115,7 +12115,7 @@
       <c r="F234" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="G234" s="2" t="s">
+      <c r="G234" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12138,7 +12138,7 @@
       <c r="F235" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="G235" s="2" t="s">
+      <c r="G235" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12161,7 +12161,7 @@
       <c r="F236" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="G236" s="2" t="s">
+      <c r="G236" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12184,7 +12184,7 @@
       <c r="F237" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="G237" s="2" t="s">
+      <c r="G237" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12207,7 +12207,7 @@
       <c r="F238" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="G238" s="2" t="s">
+      <c r="G238" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12230,7 +12230,7 @@
       <c r="F239" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="G239" s="2" t="s">
+      <c r="G239" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12253,7 +12253,7 @@
       <c r="F240" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="G240" s="2" t="s">
+      <c r="G240" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12276,7 +12276,7 @@
       <c r="F241" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="G241" s="2" t="s">
+      <c r="G241" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12299,7 +12299,7 @@
       <c r="F242" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="G242" s="2" t="s">
+      <c r="G242" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12322,7 +12322,7 @@
       <c r="F243" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="G243" s="2" t="s">
+      <c r="G243" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12345,7 +12345,7 @@
       <c r="F244" s="2" t="s">
         <v>1293</v>
       </c>
-      <c r="G244" s="2" t="s">
+      <c r="G244" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12368,7 +12368,7 @@
       <c r="F245" s="2" t="s">
         <v>1294</v>
       </c>
-      <c r="G245" s="2" t="s">
+      <c r="G245" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
       <c r="F246" s="2" t="s">
         <v>1295</v>
       </c>
-      <c r="G246" s="2" t="s">
+      <c r="G246" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12414,7 +12414,7 @@
       <c r="F247" s="2" t="s">
         <v>1296</v>
       </c>
-      <c r="G247" s="2" t="s">
+      <c r="G247" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12437,7 +12437,7 @@
       <c r="F248" s="2" t="s">
         <v>1297</v>
       </c>
-      <c r="G248" s="2" t="s">
+      <c r="G248" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12460,7 +12460,7 @@
       <c r="F249" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="G249" s="2" t="s">
+      <c r="G249" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12483,7 +12483,7 @@
       <c r="F250" s="2" t="s">
         <v>1299</v>
       </c>
-      <c r="G250" s="2" t="s">
+      <c r="G250" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12506,7 +12506,7 @@
       <c r="F251" s="2" t="s">
         <v>1300</v>
       </c>
-      <c r="G251" s="2" t="s">
+      <c r="G251" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12529,7 +12529,7 @@
       <c r="F252" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="G252" s="2" t="s">
+      <c r="G252" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12552,7 +12552,7 @@
       <c r="F253" s="2" t="s">
         <v>1302</v>
       </c>
-      <c r="G253" s="2" t="s">
+      <c r="G253" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12575,7 +12575,7 @@
       <c r="F254" s="2" t="s">
         <v>1303</v>
       </c>
-      <c r="G254" s="2" t="s">
+      <c r="G254" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12598,7 +12598,7 @@
       <c r="F255" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="G255" s="2" t="s">
+      <c r="G255" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12621,7 +12621,7 @@
       <c r="F256" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="G256" s="2" t="s">
+      <c r="G256" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12644,7 +12644,7 @@
       <c r="F257" s="2" t="s">
         <v>1306</v>
       </c>
-      <c r="G257" s="2" t="s">
+      <c r="G257" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12667,7 +12667,7 @@
       <c r="F258" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="G258" s="2" t="s">
+      <c r="G258" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12690,7 +12690,7 @@
       <c r="F259" s="2" t="s">
         <v>1308</v>
       </c>
-      <c r="G259" s="2" t="s">
+      <c r="G259" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12713,7 +12713,7 @@
       <c r="F260" s="2" t="s">
         <v>1309</v>
       </c>
-      <c r="G260" s="2" t="s">
+      <c r="G260" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12736,7 +12736,7 @@
       <c r="F261" s="2" t="s">
         <v>1310</v>
       </c>
-      <c r="G261" s="2" t="s">
+      <c r="G261" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12759,7 +12759,7 @@
       <c r="F262" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="G262" s="2" t="s">
+      <c r="G262" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12782,7 +12782,7 @@
       <c r="F263" s="2" t="s">
         <v>1312</v>
       </c>
-      <c r="G263" s="2" t="s">
+      <c r="G263" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12805,7 +12805,7 @@
       <c r="F264" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="G264" s="2" t="s">
+      <c r="G264" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12828,7 +12828,7 @@
       <c r="F265" s="2" t="s">
         <v>1314</v>
       </c>
-      <c r="G265" s="2" t="s">
+      <c r="G265" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12851,7 +12851,7 @@
       <c r="F266" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="G266" s="2" t="s">
+      <c r="G266" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12874,7 +12874,7 @@
       <c r="F267" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="G267" s="2" t="s">
+      <c r="G267" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12897,7 +12897,7 @@
       <c r="F268" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="G268" s="2" t="s">
+      <c r="G268" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12920,7 +12920,7 @@
       <c r="F269" s="2" t="s">
         <v>1318</v>
       </c>
-      <c r="G269" s="2" t="s">
+      <c r="G269" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12943,7 +12943,7 @@
       <c r="F270" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="G270" s="2" t="s">
+      <c r="G270" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12966,7 +12966,7 @@
       <c r="F271" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="G271" s="2" t="s">
+      <c r="G271" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -12989,7 +12989,7 @@
       <c r="F272" s="2" t="s">
         <v>1321</v>
       </c>
-      <c r="G272" s="2" t="s">
+      <c r="G272" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13012,7 +13012,7 @@
       <c r="F273" s="2" t="s">
         <v>1322</v>
       </c>
-      <c r="G273" s="2" t="s">
+      <c r="G273" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13035,7 +13035,7 @@
       <c r="F274" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="G274" s="2" t="s">
+      <c r="G274" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
       <c r="F275" s="2" t="s">
         <v>1324</v>
       </c>
-      <c r="G275" s="2" t="s">
+      <c r="G275" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13081,7 +13081,7 @@
       <c r="F276" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="G276" s="2" t="s">
+      <c r="G276" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13104,7 +13104,7 @@
       <c r="F277" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="G277" s="2" t="s">
+      <c r="G277" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13127,7 +13127,7 @@
       <c r="F278" s="2" t="s">
         <v>1327</v>
       </c>
-      <c r="G278" s="2" t="s">
+      <c r="G278" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13150,7 +13150,7 @@
       <c r="F279" s="2" t="s">
         <v>1328</v>
       </c>
-      <c r="G279" s="2" t="s">
+      <c r="G279" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13173,7 +13173,7 @@
       <c r="F280" s="2" t="s">
         <v>1329</v>
       </c>
-      <c r="G280" s="2" t="s">
+      <c r="G280" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13196,7 +13196,7 @@
       <c r="F281" s="2" t="s">
         <v>1330</v>
       </c>
-      <c r="G281" s="2" t="s">
+      <c r="G281" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13219,7 +13219,7 @@
       <c r="F282" s="2" t="s">
         <v>1331</v>
       </c>
-      <c r="G282" s="2" t="s">
+      <c r="G282" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13242,7 +13242,7 @@
       <c r="F283" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="G283" s="2" t="s">
+      <c r="G283" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13265,7 +13265,7 @@
       <c r="F284" s="2" t="s">
         <v>1333</v>
       </c>
-      <c r="G284" s="2" t="s">
+      <c r="G284" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
       <c r="F285" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="G285" s="2" t="s">
+      <c r="G285" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13311,7 +13311,7 @@
       <c r="F286" s="2" t="s">
         <v>1335</v>
       </c>
-      <c r="G286" s="2" t="s">
+      <c r="G286" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13334,7 +13334,7 @@
       <c r="F287" s="2" t="s">
         <v>1336</v>
       </c>
-      <c r="G287" s="2" t="s">
+      <c r="G287" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13357,7 +13357,7 @@
       <c r="F288" s="2" t="s">
         <v>1337</v>
       </c>
-      <c r="G288" s="2" t="s">
+      <c r="G288" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13380,7 +13380,7 @@
       <c r="F289" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="G289" s="2" t="s">
+      <c r="G289" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13403,7 +13403,7 @@
       <c r="F290" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="G290" s="2" t="s">
+      <c r="G290" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13426,7 +13426,7 @@
       <c r="F291" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="G291" s="2" t="s">
+      <c r="G291" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13449,7 +13449,7 @@
       <c r="F292" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="G292" s="2" t="s">
+      <c r="G292" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13472,7 +13472,7 @@
       <c r="F293" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="G293" s="2" t="s">
+      <c r="G293" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13495,7 +13495,7 @@
       <c r="F294" s="2" t="s">
         <v>1343</v>
       </c>
-      <c r="G294" s="2" t="s">
+      <c r="G294" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13518,7 +13518,7 @@
       <c r="F295" s="2" t="s">
         <v>1344</v>
       </c>
-      <c r="G295" s="2" t="s">
+      <c r="G295" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13541,7 +13541,7 @@
       <c r="F296" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="G296" s="2" t="s">
+      <c r="G296" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13564,7 +13564,7 @@
       <c r="F297" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="G297" s="2" t="s">
+      <c r="G297" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13587,7 +13587,7 @@
       <c r="F298" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="G298" s="2" t="s">
+      <c r="G298" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13610,7 +13610,7 @@
       <c r="F299" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="G299" s="2" t="s">
+      <c r="G299" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13633,7 +13633,7 @@
       <c r="F300" s="2" t="s">
         <v>1349</v>
       </c>
-      <c r="G300" s="2" t="s">
+      <c r="G300" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13656,7 +13656,7 @@
       <c r="F301" s="2" t="s">
         <v>1350</v>
       </c>
-      <c r="G301" s="2" t="s">
+      <c r="G301" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       <c r="F302" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="G302" s="2" t="s">
+      <c r="G302" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13702,7 +13702,7 @@
       <c r="F303" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="G303" s="2" t="s">
+      <c r="G303" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13725,7 +13725,7 @@
       <c r="F304" s="2" t="s">
         <v>1353</v>
       </c>
-      <c r="G304" s="2" t="s">
+      <c r="G304" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13748,7 +13748,7 @@
       <c r="F305" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="G305" s="2" t="s">
+      <c r="G305" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13771,7 +13771,7 @@
       <c r="F306" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="G306" s="2" t="s">
+      <c r="G306" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13794,7 +13794,7 @@
       <c r="F307" s="2" t="s">
         <v>1356</v>
       </c>
-      <c r="G307" s="2" t="s">
+      <c r="G307" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
       <c r="F308" s="2" t="s">
         <v>1357</v>
       </c>
-      <c r="G308" s="2" t="s">
+      <c r="G308" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13840,7 +13840,7 @@
       <c r="F309" s="2" t="s">
         <v>1358</v>
       </c>
-      <c r="G309" s="2" t="s">
+      <c r="G309" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13863,7 +13863,7 @@
       <c r="F310" s="2" t="s">
         <v>1359</v>
       </c>
-      <c r="G310" s="2" t="s">
+      <c r="G310" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13886,7 +13886,7 @@
       <c r="F311" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="G311" s="2" t="s">
+      <c r="G311" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13909,7 +13909,7 @@
       <c r="F312" s="2" t="s">
         <v>1361</v>
       </c>
-      <c r="G312" s="2" t="s">
+      <c r="G312" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13932,7 +13932,7 @@
       <c r="F313" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="G313" s="2" t="s">
+      <c r="G313" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13955,7 +13955,7 @@
       <c r="F314" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="G314" s="2" t="s">
+      <c r="G314" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -13978,7 +13978,7 @@
       <c r="F315" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="G315" s="2" t="s">
+      <c r="G315" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14001,7 +14001,7 @@
       <c r="F316" s="2" t="s">
         <v>1365</v>
       </c>
-      <c r="G316" s="2" t="s">
+      <c r="G316" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14024,7 +14024,7 @@
       <c r="F317" s="2" t="s">
         <v>1366</v>
       </c>
-      <c r="G317" s="2" t="s">
+      <c r="G317" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14047,7 +14047,7 @@
       <c r="F318" s="2" t="s">
         <v>1367</v>
       </c>
-      <c r="G318" s="2" t="s">
+      <c r="G318" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14070,7 +14070,7 @@
       <c r="F319" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="G319" s="2" t="s">
+      <c r="G319" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
       <c r="F320" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="G320" s="2" t="s">
+      <c r="G320" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14116,7 +14116,7 @@
       <c r="F321" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="G321" s="2" t="s">
+      <c r="G321" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14139,7 +14139,7 @@
       <c r="F322" s="2" t="s">
         <v>1371</v>
       </c>
-      <c r="G322" s="2" t="s">
+      <c r="G322" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14162,7 +14162,7 @@
       <c r="F323" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="G323" s="2" t="s">
+      <c r="G323" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14185,7 +14185,7 @@
       <c r="F324" s="2" t="s">
         <v>1373</v>
       </c>
-      <c r="G324" s="2" t="s">
+      <c r="G324" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14208,7 +14208,7 @@
       <c r="F325" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="G325" s="2" t="s">
+      <c r="G325" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       <c r="F326" s="2" t="s">
         <v>1375</v>
       </c>
-      <c r="G326" s="2" t="s">
+      <c r="G326" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14254,7 +14254,7 @@
       <c r="F327" s="2" t="s">
         <v>1376</v>
       </c>
-      <c r="G327" s="2" t="s">
+      <c r="G327" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14277,7 +14277,7 @@
       <c r="F328" s="2" t="s">
         <v>1377</v>
       </c>
-      <c r="G328" s="2" t="s">
+      <c r="G328" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       <c r="F329" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="G329" s="2" t="s">
+      <c r="G329" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14323,7 +14323,7 @@
       <c r="F330" s="2" t="s">
         <v>1379</v>
       </c>
-      <c r="G330" s="2" t="s">
+      <c r="G330" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14346,7 +14346,7 @@
       <c r="F331" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="G331" s="2" t="s">
+      <c r="G331" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14369,7 +14369,7 @@
       <c r="F332" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="G332" s="2" t="s">
+      <c r="G332" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14392,7 +14392,7 @@
       <c r="F333" s="2" t="s">
         <v>1382</v>
       </c>
-      <c r="G333" s="2" t="s">
+      <c r="G333" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14415,7 +14415,7 @@
       <c r="F334" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="G334" s="2" t="s">
+      <c r="G334" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14438,7 +14438,7 @@
       <c r="F335" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="G335" s="2" t="s">
+      <c r="G335" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       <c r="F336" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="G336" s="2" t="s">
+      <c r="G336" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14484,7 +14484,7 @@
       <c r="F337" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="G337" s="2" t="s">
+      <c r="G337" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14507,7 +14507,7 @@
       <c r="F338" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="G338" s="2" t="s">
+      <c r="G338" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14530,7 +14530,7 @@
       <c r="F339" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="G339" s="2" t="s">
+      <c r="G339" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14553,7 +14553,7 @@
       <c r="F340" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="G340" s="2" t="s">
+      <c r="G340" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14576,7 +14576,7 @@
       <c r="F341" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="G341" s="2" t="s">
+      <c r="G341" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14599,7 +14599,7 @@
       <c r="F342" s="2" t="s">
         <v>1391</v>
       </c>
-      <c r="G342" s="2" t="s">
+      <c r="G342" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14622,7 +14622,7 @@
       <c r="F343" s="2" t="s">
         <v>1392</v>
       </c>
-      <c r="G343" s="2" t="s">
+      <c r="G343" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14645,7 +14645,7 @@
       <c r="F344" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="G344" s="2" t="s">
+      <c r="G344" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14668,7 +14668,7 @@
       <c r="F345" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="G345" s="2" t="s">
+      <c r="G345" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14691,7 +14691,7 @@
       <c r="F346" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="G346" s="2" t="s">
+      <c r="G346" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14714,7 +14714,7 @@
       <c r="F347" s="2" t="s">
         <v>1396</v>
       </c>
-      <c r="G347" s="2" t="s">
+      <c r="G347" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14737,7 +14737,7 @@
       <c r="F348" s="2" t="s">
         <v>1397</v>
       </c>
-      <c r="G348" s="2" t="s">
+      <c r="G348" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14760,7 +14760,7 @@
       <c r="F349" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="G349" s="2" t="s">
+      <c r="G349" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14783,7 +14783,7 @@
       <c r="F350" s="2" t="s">
         <v>1399</v>
       </c>
-      <c r="G350" s="2" t="s">
+      <c r="G350" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14806,7 +14806,7 @@
       <c r="F351" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="G351" s="2" t="s">
+      <c r="G351" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14829,7 +14829,7 @@
       <c r="F352" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="G352" s="2" t="s">
+      <c r="G352" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14852,7 +14852,7 @@
       <c r="F353" s="2" t="s">
         <v>1402</v>
       </c>
-      <c r="G353" s="2" t="s">
+      <c r="G353" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14875,7 +14875,7 @@
       <c r="F354" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="G354" s="2" t="s">
+      <c r="G354" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14898,7 +14898,7 @@
       <c r="F355" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="G355" s="2" t="s">
+      <c r="G355" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14921,7 +14921,7 @@
       <c r="F356" s="2" t="s">
         <v>1405</v>
       </c>
-      <c r="G356" s="2" t="s">
+      <c r="G356" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14944,7 +14944,7 @@
       <c r="F357" s="2" t="s">
         <v>1406</v>
       </c>
-      <c r="G357" s="2" t="s">
+      <c r="G357" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14967,7 +14967,7 @@
       <c r="F358" s="2" t="s">
         <v>1407</v>
       </c>
-      <c r="G358" s="2" t="s">
+      <c r="G358" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -14990,7 +14990,7 @@
       <c r="F359" s="2" t="s">
         <v>1408</v>
       </c>
-      <c r="G359" s="2" t="s">
+      <c r="G359" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15013,7 +15013,7 @@
       <c r="F360" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="G360" s="2" t="s">
+      <c r="G360" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15036,7 +15036,7 @@
       <c r="F361" s="2" t="s">
         <v>1410</v>
       </c>
-      <c r="G361" s="2" t="s">
+      <c r="G361" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15059,7 +15059,7 @@
       <c r="F362" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="G362" s="2" t="s">
+      <c r="G362" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15082,7 +15082,7 @@
       <c r="F363" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="G363" s="2" t="s">
+      <c r="G363" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15105,7 +15105,7 @@
       <c r="F364" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="G364" s="2" t="s">
+      <c r="G364" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15128,7 +15128,7 @@
       <c r="F365" s="2" t="s">
         <v>1414</v>
       </c>
-      <c r="G365" s="2" t="s">
+      <c r="G365" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15151,7 +15151,7 @@
       <c r="F366" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="G366" s="2" t="s">
+      <c r="G366" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15174,7 +15174,7 @@
       <c r="F367" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="G367" s="2" t="s">
+      <c r="G367" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15197,7 +15197,7 @@
       <c r="F368" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="G368" s="2" t="s">
+      <c r="G368" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15220,7 +15220,7 @@
       <c r="F369" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="G369" s="2" t="s">
+      <c r="G369" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15243,7 +15243,7 @@
       <c r="F370" s="2" t="s">
         <v>1419</v>
       </c>
-      <c r="G370" s="2" t="s">
+      <c r="G370" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15266,7 +15266,7 @@
       <c r="F371" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="G371" s="2" t="s">
+      <c r="G371" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15289,7 +15289,7 @@
       <c r="F372" s="2" t="s">
         <v>1421</v>
       </c>
-      <c r="G372" s="2" t="s">
+      <c r="G372" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15312,7 +15312,7 @@
       <c r="F373" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="G373" s="2" t="s">
+      <c r="G373" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15335,7 +15335,7 @@
       <c r="F374" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="G374" s="2" t="s">
+      <c r="G374" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15358,7 +15358,7 @@
       <c r="F375" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="G375" s="2" t="s">
+      <c r="G375" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15381,7 +15381,7 @@
       <c r="F376" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="G376" s="2" t="s">
+      <c r="G376" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15404,7 +15404,7 @@
       <c r="F377" s="2" t="s">
         <v>1426</v>
       </c>
-      <c r="G377" s="2" t="s">
+      <c r="G377" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15427,7 +15427,7 @@
       <c r="F378" s="2" t="s">
         <v>1427</v>
       </c>
-      <c r="G378" s="2" t="s">
+      <c r="G378" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15450,7 +15450,7 @@
       <c r="F379" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="G379" s="2" t="s">
+      <c r="G379" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15473,7 +15473,7 @@
       <c r="F380" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="G380" s="2" t="s">
+      <c r="G380" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15496,7 +15496,7 @@
       <c r="F381" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="G381" s="2" t="s">
+      <c r="G381" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15519,7 +15519,7 @@
       <c r="F382" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="G382" s="2" t="s">
+      <c r="G382" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15542,7 +15542,7 @@
       <c r="F383" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="G383" s="2" t="s">
+      <c r="G383" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15565,7 +15565,7 @@
       <c r="F384" s="2" t="s">
         <v>1433</v>
       </c>
-      <c r="G384" s="2" t="s">
+      <c r="G384" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15588,7 +15588,7 @@
       <c r="F385" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="G385" s="2" t="s">
+      <c r="G385" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15611,7 +15611,7 @@
       <c r="F386" s="2" t="s">
         <v>1435</v>
       </c>
-      <c r="G386" s="2" t="s">
+      <c r="G386" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15634,7 +15634,7 @@
       <c r="F387" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="G387" s="2" t="s">
+      <c r="G387" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15657,7 +15657,7 @@
       <c r="F388" s="2" t="s">
         <v>1437</v>
       </c>
-      <c r="G388" s="2" t="s">
+      <c r="G388" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15680,7 +15680,7 @@
       <c r="F389" s="2" t="s">
         <v>1438</v>
       </c>
-      <c r="G389" s="2" t="s">
+      <c r="G389" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15703,7 +15703,7 @@
       <c r="F390" s="2" t="s">
         <v>1439</v>
       </c>
-      <c r="G390" s="2" t="s">
+      <c r="G390" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15726,7 +15726,7 @@
       <c r="F391" s="2" t="s">
         <v>1440</v>
       </c>
-      <c r="G391" s="2" t="s">
+      <c r="G391" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15749,7 +15749,7 @@
       <c r="F392" s="2" t="s">
         <v>1441</v>
       </c>
-      <c r="G392" s="2" t="s">
+      <c r="G392" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15772,7 +15772,7 @@
       <c r="F393" s="2" t="s">
         <v>1442</v>
       </c>
-      <c r="G393" s="2" t="s">
+      <c r="G393" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15795,7 +15795,7 @@
       <c r="F394" s="2" t="s">
         <v>1443</v>
       </c>
-      <c r="G394" s="2" t="s">
+      <c r="G394" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15818,7 +15818,7 @@
       <c r="F395" s="2" t="s">
         <v>1444</v>
       </c>
-      <c r="G395" s="2" t="s">
+      <c r="G395" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15841,7 +15841,7 @@
       <c r="F396" s="2" t="s">
         <v>1445</v>
       </c>
-      <c r="G396" s="2" t="s">
+      <c r="G396" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15864,7 +15864,7 @@
       <c r="F397" s="2" t="s">
         <v>1446</v>
       </c>
-      <c r="G397" s="2" t="s">
+      <c r="G397" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15887,7 +15887,7 @@
       <c r="F398" s="2" t="s">
         <v>1447</v>
       </c>
-      <c r="G398" s="2" t="s">
+      <c r="G398" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15910,7 +15910,7 @@
       <c r="F399" s="2" t="s">
         <v>1448</v>
       </c>
-      <c r="G399" s="2" t="s">
+      <c r="G399" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15933,7 +15933,7 @@
       <c r="F400" s="2" t="s">
         <v>1449</v>
       </c>
-      <c r="G400" s="2" t="s">
+      <c r="G400" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15956,7 +15956,7 @@
       <c r="F401" s="2" t="s">
         <v>1450</v>
       </c>
-      <c r="G401" s="2" t="s">
+      <c r="G401" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -15979,7 +15979,7 @@
       <c r="F402" s="2" t="s">
         <v>1451</v>
       </c>
-      <c r="G402" s="2" t="s">
+      <c r="G402" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16002,7 +16002,7 @@
       <c r="F403" s="2" t="s">
         <v>1452</v>
       </c>
-      <c r="G403" s="2" t="s">
+      <c r="G403" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16025,7 +16025,7 @@
       <c r="F404" s="2" t="s">
         <v>1453</v>
       </c>
-      <c r="G404" s="2" t="s">
+      <c r="G404" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16048,7 +16048,7 @@
       <c r="F405" s="2" t="s">
         <v>1454</v>
       </c>
-      <c r="G405" s="2" t="s">
+      <c r="G405" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16071,7 +16071,7 @@
       <c r="F406" s="2" t="s">
         <v>1455</v>
       </c>
-      <c r="G406" s="2" t="s">
+      <c r="G406" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16094,7 +16094,7 @@
       <c r="F407" s="2" t="s">
         <v>1456</v>
       </c>
-      <c r="G407" s="2" t="s">
+      <c r="G407" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16117,7 +16117,7 @@
       <c r="F408" s="2" t="s">
         <v>1457</v>
       </c>
-      <c r="G408" s="2" t="s">
+      <c r="G408" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16140,7 +16140,7 @@
       <c r="F409" s="2" t="s">
         <v>1458</v>
       </c>
-      <c r="G409" s="2" t="s">
+      <c r="G409" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16163,7 +16163,7 @@
       <c r="F410" s="2" t="s">
         <v>1459</v>
       </c>
-      <c r="G410" s="2" t="s">
+      <c r="G410" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16186,7 +16186,7 @@
       <c r="F411" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="G411" s="2" t="s">
+      <c r="G411" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16209,7 +16209,7 @@
       <c r="F412" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="G412" s="2" t="s">
+      <c r="G412" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16232,7 +16232,7 @@
       <c r="F413" s="2" t="s">
         <v>1462</v>
       </c>
-      <c r="G413" s="2" t="s">
+      <c r="G413" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16255,7 +16255,7 @@
       <c r="F414" s="2" t="s">
         <v>1463</v>
       </c>
-      <c r="G414" s="2" t="s">
+      <c r="G414" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16278,7 +16278,7 @@
       <c r="F415" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="G415" s="2" t="s">
+      <c r="G415" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16301,7 +16301,7 @@
       <c r="F416" s="2" t="s">
         <v>1465</v>
       </c>
-      <c r="G416" s="2" t="s">
+      <c r="G416" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16324,7 +16324,7 @@
       <c r="F417" s="2" t="s">
         <v>1466</v>
       </c>
-      <c r="G417" s="2" t="s">
+      <c r="G417" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16347,7 +16347,7 @@
       <c r="F418" s="2" t="s">
         <v>1467</v>
       </c>
-      <c r="G418" s="2" t="s">
+      <c r="G418" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16370,7 +16370,7 @@
       <c r="F419" s="2" t="s">
         <v>1468</v>
       </c>
-      <c r="G419" s="2" t="s">
+      <c r="G419" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16393,7 +16393,7 @@
       <c r="F420" s="2" t="s">
         <v>1469</v>
       </c>
-      <c r="G420" s="2" t="s">
+      <c r="G420" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16416,7 +16416,7 @@
       <c r="F421" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="G421" s="2" t="s">
+      <c r="G421" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16439,7 +16439,7 @@
       <c r="F422" s="2" t="s">
         <v>1471</v>
       </c>
-      <c r="G422" s="2" t="s">
+      <c r="G422" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16462,7 +16462,7 @@
       <c r="F423" s="2" t="s">
         <v>1472</v>
       </c>
-      <c r="G423" s="2" t="s">
+      <c r="G423" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16485,7 +16485,7 @@
       <c r="F424" s="2" t="s">
         <v>1473</v>
       </c>
-      <c r="G424" s="2" t="s">
+      <c r="G424" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16508,7 +16508,7 @@
       <c r="F425" s="2" t="s">
         <v>1474</v>
       </c>
-      <c r="G425" s="2" t="s">
+      <c r="G425" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16531,7 +16531,7 @@
       <c r="F426" s="2" t="s">
         <v>1475</v>
       </c>
-      <c r="G426" s="2" t="s">
+      <c r="G426" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16554,7 +16554,7 @@
       <c r="F427" s="2" t="s">
         <v>1476</v>
       </c>
-      <c r="G427" s="2" t="s">
+      <c r="G427" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16577,7 +16577,7 @@
       <c r="F428" s="2" t="s">
         <v>1477</v>
       </c>
-      <c r="G428" s="2" t="s">
+      <c r="G428" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16600,7 +16600,7 @@
       <c r="F429" s="2" t="s">
         <v>1478</v>
       </c>
-      <c r="G429" s="2" t="s">
+      <c r="G429" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16623,7 +16623,7 @@
       <c r="F430" s="2" t="s">
         <v>1479</v>
       </c>
-      <c r="G430" s="2" t="s">
+      <c r="G430" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16646,7 +16646,7 @@
       <c r="F431" s="2" t="s">
         <v>1480</v>
       </c>
-      <c r="G431" s="2" t="s">
+      <c r="G431" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16669,7 +16669,7 @@
       <c r="F432" s="2" t="s">
         <v>1481</v>
       </c>
-      <c r="G432" s="2" t="s">
+      <c r="G432" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16692,7 +16692,7 @@
       <c r="F433" s="2" t="s">
         <v>1482</v>
       </c>
-      <c r="G433" s="2" t="s">
+      <c r="G433" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16715,7 +16715,7 @@
       <c r="F434" s="2" t="s">
         <v>1483</v>
       </c>
-      <c r="G434" s="2" t="s">
+      <c r="G434" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16738,7 +16738,7 @@
       <c r="F435" s="2" t="s">
         <v>1484</v>
       </c>
-      <c r="G435" s="2" t="s">
+      <c r="G435" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16761,7 +16761,7 @@
       <c r="F436" s="2" t="s">
         <v>1485</v>
       </c>
-      <c r="G436" s="2" t="s">
+      <c r="G436" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16784,7 +16784,7 @@
       <c r="F437" s="2" t="s">
         <v>1486</v>
       </c>
-      <c r="G437" s="2" t="s">
+      <c r="G437" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
       <c r="F438" s="2" t="s">
         <v>1487</v>
       </c>
-      <c r="G438" s="2" t="s">
+      <c r="G438" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16830,7 +16830,7 @@
       <c r="F439" s="2" t="s">
         <v>1488</v>
       </c>
-      <c r="G439" s="2" t="s">
+      <c r="G439" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16853,7 +16853,7 @@
       <c r="F440" s="2" t="s">
         <v>1489</v>
       </c>
-      <c r="G440" s="2" t="s">
+      <c r="G440" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16876,7 +16876,7 @@
       <c r="F441" s="2" t="s">
         <v>1490</v>
       </c>
-      <c r="G441" s="2" t="s">
+      <c r="G441" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16899,7 +16899,7 @@
       <c r="F442" s="2" t="s">
         <v>1491</v>
       </c>
-      <c r="G442" s="2" t="s">
+      <c r="G442" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16922,7 +16922,7 @@
       <c r="F443" s="2" t="s">
         <v>1492</v>
       </c>
-      <c r="G443" s="2" t="s">
+      <c r="G443" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16945,7 +16945,7 @@
       <c r="F444" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="G444" s="2" t="s">
+      <c r="G444" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16968,7 +16968,7 @@
       <c r="F445" s="2" t="s">
         <v>1494</v>
       </c>
-      <c r="G445" s="2" t="s">
+      <c r="G445" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -16991,7 +16991,7 @@
       <c r="F446" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="G446" s="2" t="s">
+      <c r="G446" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17014,7 +17014,7 @@
       <c r="F447" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="G447" s="2" t="s">
+      <c r="G447" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17037,7 +17037,7 @@
       <c r="F448" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="G448" s="2" t="s">
+      <c r="G448" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17060,7 +17060,7 @@
       <c r="F449" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="G449" s="2" t="s">
+      <c r="G449" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17083,7 +17083,7 @@
       <c r="F450" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="G450" s="2" t="s">
+      <c r="G450" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17106,7 +17106,7 @@
       <c r="F451" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="G451" s="2" t="s">
+      <c r="G451" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17129,7 +17129,7 @@
       <c r="F452" s="2" t="s">
         <v>1501</v>
       </c>
-      <c r="G452" s="2" t="s">
+      <c r="G452" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17152,7 +17152,7 @@
       <c r="F453" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="G453" s="2" t="s">
+      <c r="G453" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17175,7 +17175,7 @@
       <c r="F454" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="G454" s="2" t="s">
+      <c r="G454" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17198,7 +17198,7 @@
       <c r="F455" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="G455" s="2" t="s">
+      <c r="G455" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17221,7 +17221,7 @@
       <c r="F456" s="2" t="s">
         <v>1505</v>
       </c>
-      <c r="G456" s="2" t="s">
+      <c r="G456" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17244,7 +17244,7 @@
       <c r="F457" s="2" t="s">
         <v>1506</v>
       </c>
-      <c r="G457" s="2" t="s">
+      <c r="G457" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17267,7 +17267,7 @@
       <c r="F458" s="2" t="s">
         <v>1507</v>
       </c>
-      <c r="G458" s="2" t="s">
+      <c r="G458" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       <c r="F459" s="2" t="s">
         <v>1508</v>
       </c>
-      <c r="G459" s="2" t="s">
+      <c r="G459" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17313,7 +17313,7 @@
       <c r="F460" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="G460" s="2" t="s">
+      <c r="G460" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17336,7 +17336,7 @@
       <c r="F461" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="G461" s="2" t="s">
+      <c r="G461" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       <c r="F462" s="2" t="s">
         <v>1511</v>
       </c>
-      <c r="G462" s="2" t="s">
+      <c r="G462" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17382,7 +17382,7 @@
       <c r="F463" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="G463" s="2" t="s">
+      <c r="G463" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17405,7 +17405,7 @@
       <c r="F464" s="2" t="s">
         <v>1513</v>
       </c>
-      <c r="G464" s="2" t="s">
+      <c r="G464" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17428,7 +17428,7 @@
       <c r="F465" s="2" t="s">
         <v>1514</v>
       </c>
-      <c r="G465" s="2" t="s">
+      <c r="G465" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17451,7 +17451,7 @@
       <c r="F466" s="2" t="s">
         <v>1515</v>
       </c>
-      <c r="G466" s="2" t="s">
+      <c r="G466" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17474,7 +17474,7 @@
       <c r="F467" s="2" t="s">
         <v>1516</v>
       </c>
-      <c r="G467" s="2" t="s">
+      <c r="G467" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17497,7 +17497,7 @@
       <c r="F468" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="G468" s="2" t="s">
+      <c r="G468" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17520,7 +17520,7 @@
       <c r="F469" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="G469" s="2" t="s">
+      <c r="G469" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17543,7 +17543,7 @@
       <c r="F470" s="2" t="s">
         <v>1519</v>
       </c>
-      <c r="G470" s="2" t="s">
+      <c r="G470" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17566,7 +17566,7 @@
       <c r="F471" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="G471" s="2" t="s">
+      <c r="G471" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17589,7 +17589,7 @@
       <c r="F472" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="G472" s="2" t="s">
+      <c r="G472" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17612,7 +17612,7 @@
       <c r="F473" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="G473" s="2" t="s">
+      <c r="G473" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17635,7 +17635,7 @@
       <c r="F474" s="2" t="s">
         <v>1523</v>
       </c>
-      <c r="G474" s="2" t="s">
+      <c r="G474" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17658,7 +17658,7 @@
       <c r="F475" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="G475" s="2" t="s">
+      <c r="G475" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17681,7 +17681,7 @@
       <c r="F476" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="G476" s="2" t="s">
+      <c r="G476" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17704,7 +17704,7 @@
       <c r="F477" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="G477" s="2" t="s">
+      <c r="G477" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17727,7 +17727,7 @@
       <c r="F478" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="G478" s="2" t="s">
+      <c r="G478" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17750,7 +17750,7 @@
       <c r="F479" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="G479" s="2" t="s">
+      <c r="G479" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17773,7 +17773,7 @@
       <c r="F480" s="2" t="s">
         <v>1529</v>
       </c>
-      <c r="G480" s="2" t="s">
+      <c r="G480" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17796,7 +17796,7 @@
       <c r="F481" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="G481" s="2" t="s">
+      <c r="G481" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17819,7 +17819,7 @@
       <c r="F482" s="2" t="s">
         <v>1531</v>
       </c>
-      <c r="G482" s="2" t="s">
+      <c r="G482" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17842,7 +17842,7 @@
       <c r="F483" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="G483" s="2" t="s">
+      <c r="G483" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17865,7 +17865,7 @@
       <c r="F484" s="2" t="s">
         <v>1533</v>
       </c>
-      <c r="G484" s="2" t="s">
+      <c r="G484" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17888,7 +17888,7 @@
       <c r="F485" s="2" t="s">
         <v>1534</v>
       </c>
-      <c r="G485" s="2" t="s">
+      <c r="G485" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17911,7 +17911,7 @@
       <c r="F486" s="2" t="s">
         <v>1535</v>
       </c>
-      <c r="G486" s="2" t="s">
+      <c r="G486" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17934,7 +17934,7 @@
       <c r="F487" s="2" t="s">
         <v>1536</v>
       </c>
-      <c r="G487" s="2" t="s">
+      <c r="G487" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17957,7 +17957,7 @@
       <c r="F488" s="2" t="s">
         <v>1537</v>
       </c>
-      <c r="G488" s="2" t="s">
+      <c r="G488" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -17980,7 +17980,7 @@
       <c r="F489" s="2" t="s">
         <v>1538</v>
       </c>
-      <c r="G489" s="2" t="s">
+      <c r="G489" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18003,7 +18003,7 @@
       <c r="F490" s="2" t="s">
         <v>1539</v>
       </c>
-      <c r="G490" s="2" t="s">
+      <c r="G490" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18026,7 +18026,7 @@
       <c r="F491" s="2" t="s">
         <v>1540</v>
       </c>
-      <c r="G491" s="2" t="s">
+      <c r="G491" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18049,7 +18049,7 @@
       <c r="F492" s="2" t="s">
         <v>1541</v>
       </c>
-      <c r="G492" s="2" t="s">
+      <c r="G492" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18072,7 +18072,7 @@
       <c r="F493" s="2" t="s">
         <v>1542</v>
       </c>
-      <c r="G493" s="2" t="s">
+      <c r="G493" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18095,7 +18095,7 @@
       <c r="F494" s="2" t="s">
         <v>1543</v>
       </c>
-      <c r="G494" s="2" t="s">
+      <c r="G494" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18118,7 +18118,7 @@
       <c r="F495" s="2" t="s">
         <v>1544</v>
       </c>
-      <c r="G495" s="2" t="s">
+      <c r="G495" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18141,7 +18141,7 @@
       <c r="F496" s="2" t="s">
         <v>1545</v>
       </c>
-      <c r="G496" s="2" t="s">
+      <c r="G496" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18164,7 +18164,7 @@
       <c r="F497" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="G497" s="2" t="s">
+      <c r="G497" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18187,7 +18187,7 @@
       <c r="F498" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="G498" s="2" t="s">
+      <c r="G498" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18210,7 +18210,7 @@
       <c r="F499" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="G499" s="2" t="s">
+      <c r="G499" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18233,7 +18233,7 @@
       <c r="F500" s="2" t="s">
         <v>1549</v>
       </c>
-      <c r="G500" s="2" t="s">
+      <c r="G500" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18256,7 +18256,7 @@
       <c r="F501" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="G501" s="2" t="s">
+      <c r="G501" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18279,7 +18279,7 @@
       <c r="F502" s="2" t="s">
         <v>1551</v>
       </c>
-      <c r="G502" s="2" t="s">
+      <c r="G502" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18302,7 +18302,7 @@
       <c r="F503" s="2" t="s">
         <v>1552</v>
       </c>
-      <c r="G503" s="2" t="s">
+      <c r="G503" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18325,7 +18325,7 @@
       <c r="F504" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="G504" s="2" t="s">
+      <c r="G504" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18348,7 +18348,7 @@
       <c r="F505" s="2" t="s">
         <v>1554</v>
       </c>
-      <c r="G505" s="2" t="s">
+      <c r="G505" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18371,7 +18371,7 @@
       <c r="F506" s="2" t="s">
         <v>1555</v>
       </c>
-      <c r="G506" s="2" t="s">
+      <c r="G506" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18394,7 +18394,7 @@
       <c r="F507" s="2" t="s">
         <v>1556</v>
       </c>
-      <c r="G507" s="2" t="s">
+      <c r="G507" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18417,7 +18417,7 @@
       <c r="F508" s="2" t="s">
         <v>1557</v>
       </c>
-      <c r="G508" s="2" t="s">
+      <c r="G508" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18440,7 +18440,7 @@
       <c r="F509" s="2" t="s">
         <v>1558</v>
       </c>
-      <c r="G509" s="2" t="s">
+      <c r="G509" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18463,7 +18463,7 @@
       <c r="F510" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="G510" s="2" t="s">
+      <c r="G510" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18486,7 +18486,7 @@
       <c r="F511" s="2" t="s">
         <v>1560</v>
       </c>
-      <c r="G511" s="2" t="s">
+      <c r="G511" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18509,7 +18509,7 @@
       <c r="F512" s="2" t="s">
         <v>1561</v>
       </c>
-      <c r="G512" s="2" t="s">
+      <c r="G512" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18532,7 +18532,7 @@
       <c r="F513" s="2" t="s">
         <v>1562</v>
       </c>
-      <c r="G513" s="2" t="s">
+      <c r="G513" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18555,7 +18555,7 @@
       <c r="F514" s="2" t="s">
         <v>1563</v>
       </c>
-      <c r="G514" s="2" t="s">
+      <c r="G514" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18578,7 +18578,7 @@
       <c r="F515" s="2" t="s">
         <v>1564</v>
       </c>
-      <c r="G515" s="2" t="s">
+      <c r="G515" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18601,7 +18601,7 @@
       <c r="F516" s="2" t="s">
         <v>1565</v>
       </c>
-      <c r="G516" s="2" t="s">
+      <c r="G516" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18624,7 +18624,7 @@
       <c r="F517" s="2" t="s">
         <v>1566</v>
       </c>
-      <c r="G517" s="2" t="s">
+      <c r="G517" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18647,7 +18647,7 @@
       <c r="F518" s="2" t="s">
         <v>1567</v>
       </c>
-      <c r="G518" s="2" t="s">
+      <c r="G518" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18670,7 +18670,7 @@
       <c r="F519" s="2" t="s">
         <v>1568</v>
       </c>
-      <c r="G519" s="2" t="s">
+      <c r="G519" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18693,7 +18693,7 @@
       <c r="F520" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="G520" s="2" t="s">
+      <c r="G520" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18716,7 +18716,7 @@
       <c r="F521" s="2" t="s">
         <v>1570</v>
       </c>
-      <c r="G521" s="2" t="s">
+      <c r="G521" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18739,7 +18739,7 @@
       <c r="F522" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="G522" s="2" t="s">
+      <c r="G522" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18762,7 +18762,7 @@
       <c r="F523" s="2" t="s">
         <v>1572</v>
       </c>
-      <c r="G523" s="2" t="s">
+      <c r="G523" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18785,7 +18785,7 @@
       <c r="F524" s="2" t="s">
         <v>1573</v>
       </c>
-      <c r="G524" s="2" t="s">
+      <c r="G524" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18808,7 +18808,7 @@
       <c r="F525" s="2" t="s">
         <v>1574</v>
       </c>
-      <c r="G525" s="2" t="s">
+      <c r="G525" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18831,7 +18831,7 @@
       <c r="F526" s="2" t="s">
         <v>1575</v>
       </c>
-      <c r="G526" s="2" t="s">
+      <c r="G526" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18854,7 +18854,7 @@
       <c r="F527" s="2" t="s">
         <v>1576</v>
       </c>
-      <c r="G527" s="2" t="s">
+      <c r="G527" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18877,7 +18877,7 @@
       <c r="F528" s="2" t="s">
         <v>1577</v>
       </c>
-      <c r="G528" s="2" t="s">
+      <c r="G528" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18900,7 +18900,7 @@
       <c r="F529" s="2" t="s">
         <v>1578</v>
       </c>
-      <c r="G529" s="2" t="s">
+      <c r="G529" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18923,7 +18923,7 @@
       <c r="F530" s="2" t="s">
         <v>1579</v>
       </c>
-      <c r="G530" s="2" t="s">
+      <c r="G530" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18946,7 +18946,7 @@
       <c r="F531" s="2" t="s">
         <v>1580</v>
       </c>
-      <c r="G531" s="2" t="s">
+      <c r="G531" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18969,7 +18969,7 @@
       <c r="F532" s="2" t="s">
         <v>1581</v>
       </c>
-      <c r="G532" s="2" t="s">
+      <c r="G532" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -18992,7 +18992,7 @@
       <c r="F533" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="G533" s="2" t="s">
+      <c r="G533" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19015,7 +19015,7 @@
       <c r="F534" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="G534" s="2" t="s">
+      <c r="G534" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19038,7 +19038,7 @@
       <c r="F535" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="G535" s="2" t="s">
+      <c r="G535" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19061,7 +19061,7 @@
       <c r="F536" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="G536" s="2" t="s">
+      <c r="G536" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19084,7 +19084,7 @@
       <c r="F537" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="G537" s="2" t="s">
+      <c r="G537" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19107,7 +19107,7 @@
       <c r="F538" s="2" t="s">
         <v>1587</v>
       </c>
-      <c r="G538" s="2" t="s">
+      <c r="G538" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19130,7 +19130,7 @@
       <c r="F539" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="G539" s="2" t="s">
+      <c r="G539" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19153,7 +19153,7 @@
       <c r="F540" s="2" t="s">
         <v>1589</v>
       </c>
-      <c r="G540" s="2" t="s">
+      <c r="G540" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19176,7 +19176,7 @@
       <c r="F541" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="G541" s="2" t="s">
+      <c r="G541" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19199,7 +19199,7 @@
       <c r="F542" s="2" t="s">
         <v>1591</v>
       </c>
-      <c r="G542" s="2" t="s">
+      <c r="G542" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19222,7 +19222,7 @@
       <c r="F543" s="2" t="s">
         <v>1592</v>
       </c>
-      <c r="G543" s="2" t="s">
+      <c r="G543" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19245,7 +19245,7 @@
       <c r="F544" s="2" t="s">
         <v>1593</v>
       </c>
-      <c r="G544" s="2" t="s">
+      <c r="G544" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19268,7 +19268,7 @@
       <c r="F545" s="2" t="s">
         <v>1594</v>
       </c>
-      <c r="G545" s="2" t="s">
+      <c r="G545" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19291,7 +19291,7 @@
       <c r="F546" s="2" t="s">
         <v>1595</v>
       </c>
-      <c r="G546" s="2" t="s">
+      <c r="G546" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19314,7 +19314,7 @@
       <c r="F547" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="G547" s="2" t="s">
+      <c r="G547" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19337,7 +19337,7 @@
       <c r="F548" s="2" t="s">
         <v>1597</v>
       </c>
-      <c r="G548" s="2" t="s">
+      <c r="G548" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19360,7 +19360,7 @@
       <c r="F549" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="G549" s="2" t="s">
+      <c r="G549" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19383,7 +19383,7 @@
       <c r="F550" s="2" t="s">
         <v>1599</v>
       </c>
-      <c r="G550" s="2" t="s">
+      <c r="G550" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19406,7 +19406,7 @@
       <c r="F551" s="2" t="s">
         <v>1600</v>
       </c>
-      <c r="G551" s="2" t="s">
+      <c r="G551" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19429,7 +19429,7 @@
       <c r="F552" s="2" t="s">
         <v>1601</v>
       </c>
-      <c r="G552" s="2" t="s">
+      <c r="G552" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19452,7 +19452,7 @@
       <c r="F553" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="G553" s="2" t="s">
+      <c r="G553" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19475,7 +19475,7 @@
       <c r="F554" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="G554" s="2" t="s">
+      <c r="G554" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19498,7 +19498,7 @@
       <c r="F555" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="G555" s="2" t="s">
+      <c r="G555" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19521,7 +19521,7 @@
       <c r="F556" s="2" t="s">
         <v>1605</v>
       </c>
-      <c r="G556" s="2" t="s">
+      <c r="G556" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19544,7 +19544,7 @@
       <c r="F557" s="2" t="s">
         <v>1606</v>
       </c>
-      <c r="G557" s="2" t="s">
+      <c r="G557" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19567,7 +19567,7 @@
       <c r="F558" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="G558" s="2" t="s">
+      <c r="G558" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19590,7 +19590,7 @@
       <c r="F559" s="2" t="s">
         <v>1608</v>
       </c>
-      <c r="G559" s="2" t="s">
+      <c r="G559" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19613,7 +19613,7 @@
       <c r="F560" s="2" t="s">
         <v>1609</v>
       </c>
-      <c r="G560" s="2" t="s">
+      <c r="G560" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19636,7 +19636,7 @@
       <c r="F561" s="2" t="s">
         <v>1610</v>
       </c>
-      <c r="G561" s="2" t="s">
+      <c r="G561" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19659,7 +19659,7 @@
       <c r="F562" s="2" t="s">
         <v>1611</v>
       </c>
-      <c r="G562" s="2" t="s">
+      <c r="G562" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19682,7 +19682,7 @@
       <c r="F563" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="G563" s="2" t="s">
+      <c r="G563" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19705,7 +19705,7 @@
       <c r="F564" s="2" t="s">
         <v>1613</v>
       </c>
-      <c r="G564" s="2" t="s">
+      <c r="G564" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19728,7 +19728,7 @@
       <c r="F565" s="2" t="s">
         <v>1614</v>
       </c>
-      <c r="G565" s="2" t="s">
+      <c r="G565" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19751,7 +19751,7 @@
       <c r="F566" s="2" t="s">
         <v>1615</v>
       </c>
-      <c r="G566" s="2" t="s">
+      <c r="G566" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19774,7 +19774,7 @@
       <c r="F567" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="G567" s="2" t="s">
+      <c r="G567" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19797,7 +19797,7 @@
       <c r="F568" s="2" t="s">
         <v>1617</v>
       </c>
-      <c r="G568" s="2" t="s">
+      <c r="G568" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19820,7 +19820,7 @@
       <c r="F569" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="G569" s="2" t="s">
+      <c r="G569" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19843,7 +19843,7 @@
       <c r="F570" s="2" t="s">
         <v>1619</v>
       </c>
-      <c r="G570" s="2" t="s">
+      <c r="G570" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19866,7 +19866,7 @@
       <c r="F571" s="2" t="s">
         <v>1620</v>
       </c>
-      <c r="G571" s="2" t="s">
+      <c r="G571" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19889,7 +19889,7 @@
       <c r="F572" s="2" t="s">
         <v>1621</v>
       </c>
-      <c r="G572" s="2" t="s">
+      <c r="G572" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19912,7 +19912,7 @@
       <c r="F573" s="2" t="s">
         <v>1622</v>
       </c>
-      <c r="G573" s="2" t="s">
+      <c r="G573" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19935,7 +19935,7 @@
       <c r="F574" s="2" t="s">
         <v>1623</v>
       </c>
-      <c r="G574" s="2" t="s">
+      <c r="G574" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19958,7 +19958,7 @@
       <c r="F575" s="2" t="s">
         <v>1624</v>
       </c>
-      <c r="G575" s="2" t="s">
+      <c r="G575" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -19981,7 +19981,7 @@
       <c r="F576" s="2" t="s">
         <v>1625</v>
       </c>
-      <c r="G576" s="2" t="s">
+      <c r="G576" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20004,7 +20004,7 @@
       <c r="F577" s="2" t="s">
         <v>1626</v>
       </c>
-      <c r="G577" s="2" t="s">
+      <c r="G577" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20027,7 +20027,7 @@
       <c r="F578" s="2" t="s">
         <v>1627</v>
       </c>
-      <c r="G578" s="2" t="s">
+      <c r="G578" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20050,7 +20050,7 @@
       <c r="F579" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="G579" s="2" t="s">
+      <c r="G579" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20073,7 +20073,7 @@
       <c r="F580" s="2" t="s">
         <v>1629</v>
       </c>
-      <c r="G580" s="2" t="s">
+      <c r="G580" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20096,7 +20096,7 @@
       <c r="F581" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="G581" s="2" t="s">
+      <c r="G581" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20119,7 +20119,7 @@
       <c r="F582" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="G582" s="2" t="s">
+      <c r="G582" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20142,7 +20142,7 @@
       <c r="F583" s="2" t="s">
         <v>1632</v>
       </c>
-      <c r="G583" s="2" t="s">
+      <c r="G583" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20165,7 +20165,7 @@
       <c r="F584" s="2" t="s">
         <v>1633</v>
       </c>
-      <c r="G584" s="2" t="s">
+      <c r="G584" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20188,7 +20188,7 @@
       <c r="F585" s="2" t="s">
         <v>1634</v>
       </c>
-      <c r="G585" s="2" t="s">
+      <c r="G585" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20211,7 +20211,7 @@
       <c r="F586" s="2" t="s">
         <v>1635</v>
       </c>
-      <c r="G586" s="2" t="s">
+      <c r="G586" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20234,7 +20234,7 @@
       <c r="F587" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="G587" s="2" t="s">
+      <c r="G587" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20257,7 +20257,7 @@
       <c r="F588" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="G588" s="2" t="s">
+      <c r="G588" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20280,7 +20280,7 @@
       <c r="F589" s="2" t="s">
         <v>1638</v>
       </c>
-      <c r="G589" s="2" t="s">
+      <c r="G589" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20303,7 +20303,7 @@
       <c r="F590" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="G590" s="2" t="s">
+      <c r="G590" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20326,7 +20326,7 @@
       <c r="F591" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="G591" s="2" t="s">
+      <c r="G591" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20349,7 +20349,7 @@
       <c r="F592" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="G592" s="2" t="s">
+      <c r="G592" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20372,7 +20372,7 @@
       <c r="F593" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="G593" s="2" t="s">
+      <c r="G593" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20395,7 +20395,7 @@
       <c r="F594" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="G594" s="2" t="s">
+      <c r="G594" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20418,7 +20418,7 @@
       <c r="F595" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="G595" s="2" t="s">
+      <c r="G595" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20441,7 +20441,7 @@
       <c r="F596" s="2" t="s">
         <v>1645</v>
       </c>
-      <c r="G596" s="2" t="s">
+      <c r="G596" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20464,7 +20464,7 @@
       <c r="F597" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="G597" s="2" t="s">
+      <c r="G597" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20487,7 +20487,7 @@
       <c r="F598" s="2" t="s">
         <v>1647</v>
       </c>
-      <c r="G598" s="2" t="s">
+      <c r="G598" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20510,7 +20510,7 @@
       <c r="F599" s="2" t="s">
         <v>1648</v>
       </c>
-      <c r="G599" s="2" t="s">
+      <c r="G599" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20533,7 +20533,7 @@
       <c r="F600" s="2" t="s">
         <v>1649</v>
       </c>
-      <c r="G600" s="2" t="s">
+      <c r="G600" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20556,7 +20556,7 @@
       <c r="F601" s="2" t="s">
         <v>1650</v>
       </c>
-      <c r="G601" s="2" t="s">
+      <c r="G601" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20579,7 +20579,7 @@
       <c r="F602" s="2" t="s">
         <v>1651</v>
       </c>
-      <c r="G602" s="2" t="s">
+      <c r="G602" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20602,7 +20602,7 @@
       <c r="F603" s="2" t="s">
         <v>1652</v>
       </c>
-      <c r="G603" s="2" t="s">
+      <c r="G603" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20625,7 +20625,7 @@
       <c r="F604" s="2" t="s">
         <v>1653</v>
       </c>
-      <c r="G604" s="2" t="s">
+      <c r="G604" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20648,7 +20648,7 @@
       <c r="F605" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="G605" s="2" t="s">
+      <c r="G605" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20671,7 +20671,7 @@
       <c r="F606" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="G606" s="2" t="s">
+      <c r="G606" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20694,7 +20694,7 @@
       <c r="F607" s="2" t="s">
         <v>1656</v>
       </c>
-      <c r="G607" s="2" t="s">
+      <c r="G607" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20717,7 +20717,7 @@
       <c r="F608" s="2" t="s">
         <v>1657</v>
       </c>
-      <c r="G608" s="2" t="s">
+      <c r="G608" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20740,7 +20740,7 @@
       <c r="F609" s="2" t="s">
         <v>1658</v>
       </c>
-      <c r="G609" s="2" t="s">
+      <c r="G609" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20763,7 +20763,7 @@
       <c r="F610" s="2" t="s">
         <v>1659</v>
       </c>
-      <c r="G610" s="2" t="s">
+      <c r="G610" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20786,7 +20786,7 @@
       <c r="F611" s="2" t="s">
         <v>1660</v>
       </c>
-      <c r="G611" s="2" t="s">
+      <c r="G611" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20809,7 +20809,7 @@
       <c r="F612" s="2" t="s">
         <v>1661</v>
       </c>
-      <c r="G612" s="2" t="s">
+      <c r="G612" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20832,7 +20832,7 @@
       <c r="F613" s="2" t="s">
         <v>1662</v>
       </c>
-      <c r="G613" s="2" t="s">
+      <c r="G613" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20855,7 +20855,7 @@
       <c r="F614" s="2" t="s">
         <v>1663</v>
       </c>
-      <c r="G614" s="2" t="s">
+      <c r="G614" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20878,7 +20878,7 @@
       <c r="F615" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="G615" s="2" t="s">
+      <c r="G615" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20901,7 +20901,7 @@
       <c r="F616" s="2" t="s">
         <v>1665</v>
       </c>
-      <c r="G616" s="2" t="s">
+      <c r="G616" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20924,7 +20924,7 @@
       <c r="F617" s="2" t="s">
         <v>1666</v>
       </c>
-      <c r="G617" s="2" t="s">
+      <c r="G617" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20947,7 +20947,7 @@
       <c r="F618" s="2" t="s">
         <v>1667</v>
       </c>
-      <c r="G618" s="2" t="s">
+      <c r="G618" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20970,7 +20970,7 @@
       <c r="F619" s="2" t="s">
         <v>1668</v>
       </c>
-      <c r="G619" s="2" t="s">
+      <c r="G619" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -20993,7 +20993,7 @@
       <c r="F620" s="2" t="s">
         <v>1669</v>
       </c>
-      <c r="G620" s="2" t="s">
+      <c r="G620" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21016,7 +21016,7 @@
       <c r="F621" s="2" t="s">
         <v>1670</v>
       </c>
-      <c r="G621" s="2" t="s">
+      <c r="G621" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21039,7 +21039,7 @@
       <c r="F622" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="G622" s="2" t="s">
+      <c r="G622" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21062,7 +21062,7 @@
       <c r="F623" s="2" t="s">
         <v>1672</v>
       </c>
-      <c r="G623" s="2" t="s">
+      <c r="G623" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21085,7 +21085,7 @@
       <c r="F624" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="G624" s="2" t="s">
+      <c r="G624" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21108,7 +21108,7 @@
       <c r="F625" s="2" t="s">
         <v>1674</v>
       </c>
-      <c r="G625" s="2" t="s">
+      <c r="G625" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21131,7 +21131,7 @@
       <c r="F626" s="2" t="s">
         <v>1675</v>
       </c>
-      <c r="G626" s="2" t="s">
+      <c r="G626" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21154,7 +21154,7 @@
       <c r="F627" s="2" t="s">
         <v>1676</v>
       </c>
-      <c r="G627" s="2" t="s">
+      <c r="G627" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21177,7 +21177,7 @@
       <c r="F628" s="2" t="s">
         <v>1677</v>
       </c>
-      <c r="G628" s="2" t="s">
+      <c r="G628" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21200,7 +21200,7 @@
       <c r="F629" s="2" t="s">
         <v>1678</v>
       </c>
-      <c r="G629" s="2" t="s">
+      <c r="G629" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21223,7 +21223,7 @@
       <c r="F630" s="2" t="s">
         <v>1679</v>
       </c>
-      <c r="G630" s="2" t="s">
+      <c r="G630" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21246,7 +21246,7 @@
       <c r="F631" s="2" t="s">
         <v>1680</v>
       </c>
-      <c r="G631" s="2" t="s">
+      <c r="G631" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21269,7 +21269,7 @@
       <c r="F632" s="2" t="s">
         <v>1681</v>
       </c>
-      <c r="G632" s="2" t="s">
+      <c r="G632" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21292,7 +21292,7 @@
       <c r="F633" s="2" t="s">
         <v>1682</v>
       </c>
-      <c r="G633" s="2" t="s">
+      <c r="G633" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21315,7 +21315,7 @@
       <c r="F634" s="2" t="s">
         <v>1683</v>
       </c>
-      <c r="G634" s="2" t="s">
+      <c r="G634" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21338,7 +21338,7 @@
       <c r="F635" s="2" t="s">
         <v>1684</v>
       </c>
-      <c r="G635" s="2" t="s">
+      <c r="G635" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21361,7 +21361,7 @@
       <c r="F636" s="2" t="s">
         <v>1685</v>
       </c>
-      <c r="G636" s="2" t="s">
+      <c r="G636" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21384,7 +21384,7 @@
       <c r="F637" s="2" t="s">
         <v>1686</v>
       </c>
-      <c r="G637" s="2" t="s">
+      <c r="G637" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21407,7 +21407,7 @@
       <c r="F638" s="2" t="s">
         <v>1687</v>
       </c>
-      <c r="G638" s="2" t="s">
+      <c r="G638" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21430,7 +21430,7 @@
       <c r="F639" s="2" t="s">
         <v>1688</v>
       </c>
-      <c r="G639" s="2" t="s">
+      <c r="G639" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21453,7 +21453,7 @@
       <c r="F640" s="2" t="s">
         <v>1689</v>
       </c>
-      <c r="G640" s="2" t="s">
+      <c r="G640" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21476,7 +21476,7 @@
       <c r="F641" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="G641" s="2" t="s">
+      <c r="G641" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21499,7 +21499,7 @@
       <c r="F642" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="G642" s="2" t="s">
+      <c r="G642" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21522,7 +21522,7 @@
       <c r="F643" s="2" t="s">
         <v>1692</v>
       </c>
-      <c r="G643" s="2" t="s">
+      <c r="G643" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21545,7 +21545,7 @@
       <c r="F644" s="2" t="s">
         <v>1693</v>
       </c>
-      <c r="G644" s="2" t="s">
+      <c r="G644" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21568,7 +21568,7 @@
       <c r="F645" s="2" t="s">
         <v>1694</v>
       </c>
-      <c r="G645" s="2" t="s">
+      <c r="G645" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21591,7 +21591,7 @@
       <c r="F646" s="2" t="s">
         <v>1695</v>
       </c>
-      <c r="G646" s="2" t="s">
+      <c r="G646" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21614,7 +21614,7 @@
       <c r="F647" s="2" t="s">
         <v>1696</v>
       </c>
-      <c r="G647" s="2" t="s">
+      <c r="G647" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21637,7 +21637,7 @@
       <c r="F648" s="2" t="s">
         <v>1697</v>
       </c>
-      <c r="G648" s="2" t="s">
+      <c r="G648" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21660,7 +21660,7 @@
       <c r="F649" s="2" t="s">
         <v>1698</v>
       </c>
-      <c r="G649" s="2" t="s">
+      <c r="G649" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21683,7 +21683,7 @@
       <c r="F650" s="2" t="s">
         <v>1699</v>
       </c>
-      <c r="G650" s="2" t="s">
+      <c r="G650" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21706,7 +21706,7 @@
       <c r="F651" s="2" t="s">
         <v>1700</v>
       </c>
-      <c r="G651" s="2" t="s">
+      <c r="G651" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21729,7 +21729,7 @@
       <c r="F652" s="2" t="s">
         <v>1701</v>
       </c>
-      <c r="G652" s="2" t="s">
+      <c r="G652" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21752,7 +21752,7 @@
       <c r="F653" s="2" t="s">
         <v>1702</v>
       </c>
-      <c r="G653" s="2" t="s">
+      <c r="G653" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21775,7 +21775,7 @@
       <c r="F654" s="2" t="s">
         <v>1703</v>
       </c>
-      <c r="G654" s="2" t="s">
+      <c r="G654" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21798,7 +21798,7 @@
       <c r="F655" s="2" t="s">
         <v>1704</v>
       </c>
-      <c r="G655" s="2" t="s">
+      <c r="G655" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21821,7 +21821,7 @@
       <c r="F656" s="2" t="s">
         <v>1705</v>
       </c>
-      <c r="G656" s="2" t="s">
+      <c r="G656" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21844,7 +21844,7 @@
       <c r="F657" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="G657" s="2" t="s">
+      <c r="G657" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21867,7 +21867,7 @@
       <c r="F658" s="2" t="s">
         <v>1707</v>
       </c>
-      <c r="G658" s="2" t="s">
+      <c r="G658" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21890,7 +21890,7 @@
       <c r="F659" s="2" t="s">
         <v>1708</v>
       </c>
-      <c r="G659" s="2" t="s">
+      <c r="G659" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21913,7 +21913,7 @@
       <c r="F660" s="2" t="s">
         <v>1709</v>
       </c>
-      <c r="G660" s="2" t="s">
+      <c r="G660" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21936,7 +21936,7 @@
       <c r="F661" s="2" t="s">
         <v>1710</v>
       </c>
-      <c r="G661" s="2" t="s">
+      <c r="G661" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21959,7 +21959,7 @@
       <c r="F662" s="2" t="s">
         <v>1711</v>
       </c>
-      <c r="G662" s="2" t="s">
+      <c r="G662" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -21982,7 +21982,7 @@
       <c r="F663" s="2" t="s">
         <v>1712</v>
       </c>
-      <c r="G663" s="2" t="s">
+      <c r="G663" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22005,7 +22005,7 @@
       <c r="F664" s="2" t="s">
         <v>1713</v>
       </c>
-      <c r="G664" s="2" t="s">
+      <c r="G664" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22028,7 +22028,7 @@
       <c r="F665" s="2" t="s">
         <v>1714</v>
       </c>
-      <c r="G665" s="2" t="s">
+      <c r="G665" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22051,7 +22051,7 @@
       <c r="F666" s="2" t="s">
         <v>1715</v>
       </c>
-      <c r="G666" s="2" t="s">
+      <c r="G666" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22074,7 +22074,7 @@
       <c r="F667" s="2" t="s">
         <v>1716</v>
       </c>
-      <c r="G667" s="2" t="s">
+      <c r="G667" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22097,7 +22097,7 @@
       <c r="F668" s="2" t="s">
         <v>1717</v>
       </c>
-      <c r="G668" s="2" t="s">
+      <c r="G668" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22120,7 +22120,7 @@
       <c r="F669" s="2" t="s">
         <v>1718</v>
       </c>
-      <c r="G669" s="2" t="s">
+      <c r="G669" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22143,7 +22143,7 @@
       <c r="F670" s="2" t="s">
         <v>1719</v>
       </c>
-      <c r="G670" s="2" t="s">
+      <c r="G670" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22166,7 +22166,7 @@
       <c r="F671" s="2" t="s">
         <v>1720</v>
       </c>
-      <c r="G671" s="2" t="s">
+      <c r="G671" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22189,7 +22189,7 @@
       <c r="F672" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="G672" s="2" t="s">
+      <c r="G672" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22212,7 +22212,7 @@
       <c r="F673" s="2" t="s">
         <v>1722</v>
       </c>
-      <c r="G673" s="2" t="s">
+      <c r="G673" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22235,7 +22235,7 @@
       <c r="F674" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="G674" s="2" t="s">
+      <c r="G674" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22258,7 +22258,7 @@
       <c r="F675" s="2" t="s">
         <v>1724</v>
       </c>
-      <c r="G675" s="2" t="s">
+      <c r="G675" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22281,7 +22281,7 @@
       <c r="F676" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="G676" s="2" t="s">
+      <c r="G676" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22304,7 +22304,7 @@
       <c r="F677" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="G677" s="2" t="s">
+      <c r="G677" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22327,7 +22327,7 @@
       <c r="F678" s="2" t="s">
         <v>1727</v>
       </c>
-      <c r="G678" s="2" t="s">
+      <c r="G678" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22350,7 +22350,7 @@
       <c r="F679" s="2" t="s">
         <v>1728</v>
       </c>
-      <c r="G679" s="2" t="s">
+      <c r="G679" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22373,7 +22373,7 @@
       <c r="F680" s="2" t="s">
         <v>1729</v>
       </c>
-      <c r="G680" s="2" t="s">
+      <c r="G680" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22396,7 +22396,7 @@
       <c r="F681" s="2" t="s">
         <v>1730</v>
       </c>
-      <c r="G681" s="2" t="s">
+      <c r="G681" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22419,7 +22419,7 @@
       <c r="F682" s="2" t="s">
         <v>1731</v>
       </c>
-      <c r="G682" s="2" t="s">
+      <c r="G682" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22442,7 +22442,7 @@
       <c r="F683" s="2" t="s">
         <v>1732</v>
       </c>
-      <c r="G683" s="2" t="s">
+      <c r="G683" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22465,7 +22465,7 @@
       <c r="F684" s="2" t="s">
         <v>1733</v>
       </c>
-      <c r="G684" s="2" t="s">
+      <c r="G684" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22488,7 +22488,7 @@
       <c r="F685" s="2" t="s">
         <v>1734</v>
       </c>
-      <c r="G685" s="2" t="s">
+      <c r="G685" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22511,7 +22511,7 @@
       <c r="F686" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="G686" s="2" t="s">
+      <c r="G686" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22534,7 +22534,7 @@
       <c r="F687" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="G687" s="2" t="s">
+      <c r="G687" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22557,7 +22557,7 @@
       <c r="F688" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="G688" s="2" t="s">
+      <c r="G688" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22580,7 +22580,7 @@
       <c r="F689" s="2" t="s">
         <v>1738</v>
       </c>
-      <c r="G689" s="2" t="s">
+      <c r="G689" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22603,7 +22603,7 @@
       <c r="F690" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="G690" s="2" t="s">
+      <c r="G690" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22626,7 +22626,7 @@
       <c r="F691" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="G691" s="2" t="s">
+      <c r="G691" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22649,7 +22649,7 @@
       <c r="F692" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="G692" s="2" t="s">
+      <c r="G692" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22672,7 +22672,7 @@
       <c r="F693" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="G693" s="2" t="s">
+      <c r="G693" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22695,7 +22695,7 @@
       <c r="F694" s="2" t="s">
         <v>1743</v>
       </c>
-      <c r="G694" s="2" t="s">
+      <c r="G694" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22718,7 +22718,7 @@
       <c r="F695" s="2" t="s">
         <v>1744</v>
       </c>
-      <c r="G695" s="2" t="s">
+      <c r="G695" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22741,7 +22741,7 @@
       <c r="F696" s="2" t="s">
         <v>1745</v>
       </c>
-      <c r="G696" s="2" t="s">
+      <c r="G696" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22764,7 +22764,7 @@
       <c r="F697" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="G697" s="2" t="s">
+      <c r="G697" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22787,7 +22787,7 @@
       <c r="F698" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="G698" s="2" t="s">
+      <c r="G698" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22810,7 +22810,7 @@
       <c r="F699" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="G699" s="2" t="s">
+      <c r="G699" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22833,7 +22833,7 @@
       <c r="F700" s="2" t="s">
         <v>1749</v>
       </c>
-      <c r="G700" s="2" t="s">
+      <c r="G700" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22856,7 +22856,7 @@
       <c r="F701" s="2" t="s">
         <v>1750</v>
       </c>
-      <c r="G701" s="2" t="s">
+      <c r="G701" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22879,7 +22879,7 @@
       <c r="F702" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="G702" s="2" t="s">
+      <c r="G702" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22902,7 +22902,7 @@
       <c r="F703" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="G703" s="2" t="s">
+      <c r="G703" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22925,7 +22925,7 @@
       <c r="F704" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="G704" s="2" t="s">
+      <c r="G704" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22948,7 +22948,7 @@
       <c r="F705" s="2" t="s">
         <v>1754</v>
       </c>
-      <c r="G705" s="2" t="s">
+      <c r="G705" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22971,7 +22971,7 @@
       <c r="F706" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="G706" s="2" t="s">
+      <c r="G706" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -22994,7 +22994,7 @@
       <c r="F707" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="G707" s="2" t="s">
+      <c r="G707" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23017,7 +23017,7 @@
       <c r="F708" s="2" t="s">
         <v>1757</v>
       </c>
-      <c r="G708" s="2" t="s">
+      <c r="G708" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23040,7 +23040,7 @@
       <c r="F709" s="2" t="s">
         <v>1758</v>
       </c>
-      <c r="G709" s="2" t="s">
+      <c r="G709" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23063,7 +23063,7 @@
       <c r="F710" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="G710" s="2" t="s">
+      <c r="G710" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23086,7 +23086,7 @@
       <c r="F711" s="2" t="s">
         <v>1760</v>
       </c>
-      <c r="G711" s="2" t="s">
+      <c r="G711" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23109,7 +23109,7 @@
       <c r="F712" s="2" t="s">
         <v>1761</v>
       </c>
-      <c r="G712" s="2" t="s">
+      <c r="G712" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23132,7 +23132,7 @@
       <c r="F713" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="G713" s="2" t="s">
+      <c r="G713" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23155,7 +23155,7 @@
       <c r="F714" s="2" t="s">
         <v>1763</v>
       </c>
-      <c r="G714" s="2" t="s">
+      <c r="G714" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23178,7 +23178,7 @@
       <c r="F715" s="2" t="s">
         <v>1764</v>
       </c>
-      <c r="G715" s="2" t="s">
+      <c r="G715" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23201,7 +23201,7 @@
       <c r="F716" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="G716" s="2" t="s">
+      <c r="G716" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23224,7 +23224,7 @@
       <c r="F717" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="G717" s="2" t="s">
+      <c r="G717" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23247,7 +23247,7 @@
       <c r="F718" s="2" t="s">
         <v>1767</v>
       </c>
-      <c r="G718" s="2" t="s">
+      <c r="G718" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23270,7 +23270,7 @@
       <c r="F719" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="G719" s="2" t="s">
+      <c r="G719" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23293,7 +23293,7 @@
       <c r="F720" s="2" t="s">
         <v>1769</v>
       </c>
-      <c r="G720" s="2" t="s">
+      <c r="G720" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23316,7 +23316,7 @@
       <c r="F721" s="2" t="s">
         <v>1770</v>
       </c>
-      <c r="G721" s="2" t="s">
+      <c r="G721" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23339,7 +23339,7 @@
       <c r="F722" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="G722" s="2" t="s">
+      <c r="G722" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23362,7 +23362,7 @@
       <c r="F723" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="G723" s="2" t="s">
+      <c r="G723" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23385,7 +23385,7 @@
       <c r="F724" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="G724" s="2" t="s">
+      <c r="G724" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23408,7 +23408,7 @@
       <c r="F725" s="2" t="s">
         <v>1774</v>
       </c>
-      <c r="G725" s="2" t="s">
+      <c r="G725" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23431,7 +23431,7 @@
       <c r="F726" s="2" t="s">
         <v>1775</v>
       </c>
-      <c r="G726" s="2" t="s">
+      <c r="G726" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23454,7 +23454,7 @@
       <c r="F727" s="2" t="s">
         <v>1776</v>
       </c>
-      <c r="G727" s="2" t="s">
+      <c r="G727" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23477,7 +23477,7 @@
       <c r="F728" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="G728" s="2" t="s">
+      <c r="G728" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23500,7 +23500,7 @@
       <c r="F729" s="2" t="s">
         <v>1778</v>
       </c>
-      <c r="G729" s="2" t="s">
+      <c r="G729" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23523,7 +23523,7 @@
       <c r="F730" s="2" t="s">
         <v>1779</v>
       </c>
-      <c r="G730" s="2" t="s">
+      <c r="G730" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23546,7 +23546,7 @@
       <c r="F731" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="G731" s="2" t="s">
+      <c r="G731" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23569,7 +23569,7 @@
       <c r="F732" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="G732" s="2" t="s">
+      <c r="G732" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23592,7 +23592,7 @@
       <c r="F733" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="G733" s="2" t="s">
+      <c r="G733" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23615,7 +23615,7 @@
       <c r="F734" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="G734" s="2" t="s">
+      <c r="G734" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23638,7 +23638,7 @@
       <c r="F735" s="2" t="s">
         <v>1784</v>
       </c>
-      <c r="G735" s="2" t="s">
+      <c r="G735" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23661,7 +23661,7 @@
       <c r="F736" s="2" t="s">
         <v>1785</v>
       </c>
-      <c r="G736" s="2" t="s">
+      <c r="G736" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23684,7 +23684,7 @@
       <c r="F737" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="G737" s="2" t="s">
+      <c r="G737" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23707,7 +23707,7 @@
       <c r="F738" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="G738" s="2" t="s">
+      <c r="G738" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23730,7 +23730,7 @@
       <c r="F739" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="G739" s="2" t="s">
+      <c r="G739" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23753,7 +23753,7 @@
       <c r="F740" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="G740" s="2" t="s">
+      <c r="G740" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23776,7 +23776,7 @@
       <c r="F741" s="2" t="s">
         <v>1790</v>
       </c>
-      <c r="G741" s="2" t="s">
+      <c r="G741" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23799,7 +23799,7 @@
       <c r="F742" s="2" t="s">
         <v>1791</v>
       </c>
-      <c r="G742" s="2" t="s">
+      <c r="G742" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23822,7 +23822,7 @@
       <c r="F743" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="G743" s="2" t="s">
+      <c r="G743" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23845,7 +23845,7 @@
       <c r="F744" s="2" t="s">
         <v>1793</v>
       </c>
-      <c r="G744" s="2" t="s">
+      <c r="G744" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23868,7 +23868,7 @@
       <c r="F745" s="2" t="s">
         <v>1794</v>
       </c>
-      <c r="G745" s="2" t="s">
+      <c r="G745" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23891,7 +23891,7 @@
       <c r="F746" s="2" t="s">
         <v>1795</v>
       </c>
-      <c r="G746" s="2" t="s">
+      <c r="G746" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23914,7 +23914,7 @@
       <c r="F747" s="2" t="s">
         <v>1796</v>
       </c>
-      <c r="G747" s="2" t="s">
+      <c r="G747" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23937,7 +23937,7 @@
       <c r="F748" s="2" t="s">
         <v>1797</v>
       </c>
-      <c r="G748" s="2" t="s">
+      <c r="G748" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23960,7 +23960,7 @@
       <c r="F749" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="G749" s="2" t="s">
+      <c r="G749" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -23983,7 +23983,7 @@
       <c r="F750" s="2" t="s">
         <v>1799</v>
       </c>
-      <c r="G750" s="2" t="s">
+      <c r="G750" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24006,7 +24006,7 @@
       <c r="F751" s="2" t="s">
         <v>1800</v>
       </c>
-      <c r="G751" s="2" t="s">
+      <c r="G751" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24029,7 +24029,7 @@
       <c r="F752" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="G752" s="2" t="s">
+      <c r="G752" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24052,7 +24052,7 @@
       <c r="F753" s="2" t="s">
         <v>1802</v>
       </c>
-      <c r="G753" s="2" t="s">
+      <c r="G753" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24075,7 +24075,7 @@
       <c r="F754" s="2" t="s">
         <v>1803</v>
       </c>
-      <c r="G754" s="2" t="s">
+      <c r="G754" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24098,7 +24098,7 @@
       <c r="F755" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="G755" s="2" t="s">
+      <c r="G755" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24121,7 +24121,7 @@
       <c r="F756" s="2" t="s">
         <v>1805</v>
       </c>
-      <c r="G756" s="2" t="s">
+      <c r="G756" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24144,7 +24144,7 @@
       <c r="F757" s="2" t="s">
         <v>1806</v>
       </c>
-      <c r="G757" s="2" t="s">
+      <c r="G757" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24167,7 +24167,7 @@
       <c r="F758" s="2" t="s">
         <v>1807</v>
       </c>
-      <c r="G758" s="2" t="s">
+      <c r="G758" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24190,7 +24190,7 @@
       <c r="F759" s="2" t="s">
         <v>1808</v>
       </c>
-      <c r="G759" s="2" t="s">
+      <c r="G759" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24213,7 +24213,7 @@
       <c r="F760" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="G760" s="2" t="s">
+      <c r="G760" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24236,7 +24236,7 @@
       <c r="F761" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="G761" s="2" t="s">
+      <c r="G761" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24259,7 +24259,7 @@
       <c r="F762" s="2" t="s">
         <v>1811</v>
       </c>
-      <c r="G762" s="2" t="s">
+      <c r="G762" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24282,7 +24282,7 @@
       <c r="F763" s="2" t="s">
         <v>1812</v>
       </c>
-      <c r="G763" s="2" t="s">
+      <c r="G763" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24305,7 +24305,7 @@
       <c r="F764" s="2" t="s">
         <v>1813</v>
       </c>
-      <c r="G764" s="2" t="s">
+      <c r="G764" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24328,7 +24328,7 @@
       <c r="F765" s="2" t="s">
         <v>1814</v>
       </c>
-      <c r="G765" s="2" t="s">
+      <c r="G765" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24351,7 +24351,7 @@
       <c r="F766" s="2" t="s">
         <v>1815</v>
       </c>
-      <c r="G766" s="2" t="s">
+      <c r="G766" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24374,7 +24374,7 @@
       <c r="F767" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="G767" s="2" t="s">
+      <c r="G767" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24397,7 +24397,7 @@
       <c r="F768" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="G768" s="2" t="s">
+      <c r="G768" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24420,7 +24420,7 @@
       <c r="F769" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="G769" s="2" t="s">
+      <c r="G769" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24443,7 +24443,7 @@
       <c r="F770" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="G770" s="2" t="s">
+      <c r="G770" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24466,7 +24466,7 @@
       <c r="F771" s="2" t="s">
         <v>1820</v>
       </c>
-      <c r="G771" s="2" t="s">
+      <c r="G771" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24489,7 +24489,7 @@
       <c r="F772" s="2" t="s">
         <v>1821</v>
       </c>
-      <c r="G772" s="2" t="s">
+      <c r="G772" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24512,7 +24512,7 @@
       <c r="F773" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="G773" s="2" t="s">
+      <c r="G773" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24535,7 +24535,7 @@
       <c r="F774" s="2" t="s">
         <v>1823</v>
       </c>
-      <c r="G774" s="2" t="s">
+      <c r="G774" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24558,7 +24558,7 @@
       <c r="F775" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="G775" s="2" t="s">
+      <c r="G775" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24581,7 +24581,7 @@
       <c r="F776" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="G776" s="2" t="s">
+      <c r="G776" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24604,7 +24604,7 @@
       <c r="F777" s="2" t="s">
         <v>1826</v>
       </c>
-      <c r="G777" s="2" t="s">
+      <c r="G777" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24627,7 +24627,7 @@
       <c r="F778" s="2" t="s">
         <v>1827</v>
       </c>
-      <c r="G778" s="2" t="s">
+      <c r="G778" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24650,7 +24650,7 @@
       <c r="F779" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="G779" s="2" t="s">
+      <c r="G779" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24673,7 +24673,7 @@
       <c r="F780" s="2" t="s">
         <v>1829</v>
       </c>
-      <c r="G780" s="2" t="s">
+      <c r="G780" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24696,7 +24696,7 @@
       <c r="F781" s="2" t="s">
         <v>1830</v>
       </c>
-      <c r="G781" s="2" t="s">
+      <c r="G781" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24719,7 +24719,7 @@
       <c r="F782" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="G782" s="2" t="s">
+      <c r="G782" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24742,7 +24742,7 @@
       <c r="F783" s="2" t="s">
         <v>1832</v>
       </c>
-      <c r="G783" s="2" t="s">
+      <c r="G783" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24765,7 +24765,7 @@
       <c r="F784" s="2" t="s">
         <v>1833</v>
       </c>
-      <c r="G784" s="2" t="s">
+      <c r="G784" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24788,7 +24788,7 @@
       <c r="F785" s="2" t="s">
         <v>1834</v>
       </c>
-      <c r="G785" s="2" t="s">
+      <c r="G785" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
       <c r="F786" s="2" t="s">
         <v>1835</v>
       </c>
-      <c r="G786" s="2" t="s">
+      <c r="G786" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24834,7 +24834,7 @@
       <c r="F787" s="2" t="s">
         <v>1836</v>
       </c>
-      <c r="G787" s="2" t="s">
+      <c r="G787" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24857,7 +24857,7 @@
       <c r="F788" s="2" t="s">
         <v>1837</v>
       </c>
-      <c r="G788" s="2" t="s">
+      <c r="G788" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       <c r="F789" s="2" t="s">
         <v>1838</v>
       </c>
-      <c r="G789" s="2" t="s">
+      <c r="G789" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24903,7 +24903,7 @@
       <c r="F790" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="G790" s="2" t="s">
+      <c r="G790" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24926,7 +24926,7 @@
       <c r="F791" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="G791" s="2" t="s">
+      <c r="G791" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24949,7 +24949,7 @@
       <c r="F792" s="2" t="s">
         <v>1841</v>
       </c>
-      <c r="G792" s="2" t="s">
+      <c r="G792" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24972,7 +24972,7 @@
       <c r="F793" s="2" t="s">
         <v>1842</v>
       </c>
-      <c r="G793" s="2" t="s">
+      <c r="G793" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -24995,7 +24995,7 @@
       <c r="F794" s="2" t="s">
         <v>1843</v>
       </c>
-      <c r="G794" s="2" t="s">
+      <c r="G794" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25018,7 +25018,7 @@
       <c r="F795" s="2" t="s">
         <v>1844</v>
       </c>
-      <c r="G795" s="2" t="s">
+      <c r="G795" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25041,7 +25041,7 @@
       <c r="F796" s="2" t="s">
         <v>1845</v>
       </c>
-      <c r="G796" s="2" t="s">
+      <c r="G796" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25064,7 +25064,7 @@
       <c r="F797" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="G797" s="2" t="s">
+      <c r="G797" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25087,7 +25087,7 @@
       <c r="F798" s="2" t="s">
         <v>1847</v>
       </c>
-      <c r="G798" s="2" t="s">
+      <c r="G798" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25110,7 +25110,7 @@
       <c r="F799" s="2" t="s">
         <v>1848</v>
       </c>
-      <c r="G799" s="2" t="s">
+      <c r="G799" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25133,7 +25133,7 @@
       <c r="F800" s="2" t="s">
         <v>1849</v>
       </c>
-      <c r="G800" s="2" t="s">
+      <c r="G800" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25156,7 +25156,7 @@
       <c r="F801" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="G801" s="2" t="s">
+      <c r="G801" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25179,7 +25179,7 @@
       <c r="F802" s="2" t="s">
         <v>1851</v>
       </c>
-      <c r="G802" s="2" t="s">
+      <c r="G802" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25202,7 +25202,7 @@
       <c r="F803" s="2" t="s">
         <v>1852</v>
       </c>
-      <c r="G803" s="2" t="s">
+      <c r="G803" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       <c r="F804" s="2" t="s">
         <v>1853</v>
       </c>
-      <c r="G804" s="2" t="s">
+      <c r="G804" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25248,7 +25248,7 @@
       <c r="F805" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="G805" s="2" t="s">
+      <c r="G805" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25271,7 +25271,7 @@
       <c r="F806" s="2" t="s">
         <v>1855</v>
       </c>
-      <c r="G806" s="2" t="s">
+      <c r="G806" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="F807" s="2" t="s">
         <v>1856</v>
       </c>
-      <c r="G807" s="2" t="s">
+      <c r="G807" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25317,7 +25317,7 @@
       <c r="F808" s="2" t="s">
         <v>1857</v>
       </c>
-      <c r="G808" s="2" t="s">
+      <c r="G808" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25340,7 +25340,7 @@
       <c r="F809" s="2" t="s">
         <v>1858</v>
       </c>
-      <c r="G809" s="2" t="s">
+      <c r="G809" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="F810" s="2" t="s">
         <v>1859</v>
       </c>
-      <c r="G810" s="2" t="s">
+      <c r="G810" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25386,7 +25386,7 @@
       <c r="F811" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="G811" s="2" t="s">
+      <c r="G811" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25409,7 +25409,7 @@
       <c r="F812" s="2" t="s">
         <v>1861</v>
       </c>
-      <c r="G812" s="2" t="s">
+      <c r="G812" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25432,7 +25432,7 @@
       <c r="F813" s="2" t="s">
         <v>1862</v>
       </c>
-      <c r="G813" s="2" t="s">
+      <c r="G813" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25455,7 +25455,7 @@
       <c r="F814" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="G814" s="2" t="s">
+      <c r="G814" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25478,7 +25478,7 @@
       <c r="F815" s="2" t="s">
         <v>1864</v>
       </c>
-      <c r="G815" s="2" t="s">
+      <c r="G815" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25501,7 +25501,7 @@
       <c r="F816" s="2" t="s">
         <v>1865</v>
       </c>
-      <c r="G816" s="2" t="s">
+      <c r="G816" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25524,7 +25524,7 @@
       <c r="F817" s="2" t="s">
         <v>1866</v>
       </c>
-      <c r="G817" s="2" t="s">
+      <c r="G817" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25547,7 +25547,7 @@
       <c r="F818" s="2" t="s">
         <v>1867</v>
       </c>
-      <c r="G818" s="2" t="s">
+      <c r="G818" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25570,7 +25570,7 @@
       <c r="F819" s="2" t="s">
         <v>1868</v>
       </c>
-      <c r="G819" s="2" t="s">
+      <c r="G819" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25593,7 +25593,7 @@
       <c r="F820" s="2" t="s">
         <v>1869</v>
       </c>
-      <c r="G820" s="2" t="s">
+      <c r="G820" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25616,7 +25616,7 @@
       <c r="F821" s="2" t="s">
         <v>1870</v>
       </c>
-      <c r="G821" s="2" t="s">
+      <c r="G821" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25639,7 +25639,7 @@
       <c r="F822" s="2" t="s">
         <v>1871</v>
       </c>
-      <c r="G822" s="2" t="s">
+      <c r="G822" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25662,7 +25662,7 @@
       <c r="F823" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="G823" s="2" t="s">
+      <c r="G823" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25685,7 +25685,7 @@
       <c r="F824" s="2" t="s">
         <v>1873</v>
       </c>
-      <c r="G824" s="2" t="s">
+      <c r="G824" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25708,7 +25708,7 @@
       <c r="F825" s="2" t="s">
         <v>1874</v>
       </c>
-      <c r="G825" s="2" t="s">
+      <c r="G825" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25731,7 +25731,7 @@
       <c r="F826" s="2" t="s">
         <v>1875</v>
       </c>
-      <c r="G826" s="2" t="s">
+      <c r="G826" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25754,7 +25754,7 @@
       <c r="F827" s="2" t="s">
         <v>1876</v>
       </c>
-      <c r="G827" s="2" t="s">
+      <c r="G827" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25777,7 +25777,7 @@
       <c r="F828" s="2" t="s">
         <v>1877</v>
       </c>
-      <c r="G828" s="2" t="s">
+      <c r="G828" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25800,7 +25800,7 @@
       <c r="F829" s="2" t="s">
         <v>1878</v>
       </c>
-      <c r="G829" s="2" t="s">
+      <c r="G829" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25823,7 +25823,7 @@
       <c r="F830" s="2" t="s">
         <v>1879</v>
       </c>
-      <c r="G830" s="2" t="s">
+      <c r="G830" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25846,7 +25846,7 @@
       <c r="F831" s="2" t="s">
         <v>1880</v>
       </c>
-      <c r="G831" s="2" t="s">
+      <c r="G831" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25869,7 +25869,7 @@
       <c r="F832" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="G832" s="2" t="s">
+      <c r="G832" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25892,7 +25892,7 @@
       <c r="F833" s="2" t="s">
         <v>1882</v>
       </c>
-      <c r="G833" s="2" t="s">
+      <c r="G833" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25915,7 +25915,7 @@
       <c r="F834" s="2" t="s">
         <v>1883</v>
       </c>
-      <c r="G834" s="2" t="s">
+      <c r="G834" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25938,7 +25938,7 @@
       <c r="F835" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="G835" s="2" t="s">
+      <c r="G835" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25961,7 +25961,7 @@
       <c r="F836" s="2" t="s">
         <v>1885</v>
       </c>
-      <c r="G836" s="2" t="s">
+      <c r="G836" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -25984,7 +25984,7 @@
       <c r="F837" s="2" t="s">
         <v>1886</v>
       </c>
-      <c r="G837" s="2" t="s">
+      <c r="G837" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26007,7 +26007,7 @@
       <c r="F838" s="2" t="s">
         <v>1887</v>
       </c>
-      <c r="G838" s="2" t="s">
+      <c r="G838" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26030,7 +26030,7 @@
       <c r="F839" s="2" t="s">
         <v>1888</v>
       </c>
-      <c r="G839" s="2" t="s">
+      <c r="G839" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26053,7 +26053,7 @@
       <c r="F840" s="2" t="s">
         <v>1889</v>
       </c>
-      <c r="G840" s="2" t="s">
+      <c r="G840" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26076,7 +26076,7 @@
       <c r="F841" s="2" t="s">
         <v>1890</v>
       </c>
-      <c r="G841" s="2" t="s">
+      <c r="G841" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26099,7 +26099,7 @@
       <c r="F842" s="2" t="s">
         <v>1891</v>
       </c>
-      <c r="G842" s="2" t="s">
+      <c r="G842" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26122,7 +26122,7 @@
       <c r="F843" s="2" t="s">
         <v>1892</v>
       </c>
-      <c r="G843" s="2" t="s">
+      <c r="G843" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26145,7 +26145,7 @@
       <c r="F844" s="2" t="s">
         <v>1893</v>
       </c>
-      <c r="G844" s="2" t="s">
+      <c r="G844" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26168,7 +26168,7 @@
       <c r="F845" s="2" t="s">
         <v>1894</v>
       </c>
-      <c r="G845" s="2" t="s">
+      <c r="G845" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26191,7 +26191,7 @@
       <c r="F846" s="2" t="s">
         <v>1895</v>
       </c>
-      <c r="G846" s="2" t="s">
+      <c r="G846" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26214,7 +26214,7 @@
       <c r="F847" s="2" t="s">
         <v>1896</v>
       </c>
-      <c r="G847" s="2" t="s">
+      <c r="G847" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26237,7 +26237,7 @@
       <c r="F848" s="2" t="s">
         <v>1897</v>
       </c>
-      <c r="G848" s="2" t="s">
+      <c r="G848" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26260,7 +26260,7 @@
       <c r="F849" s="2" t="s">
         <v>1898</v>
       </c>
-      <c r="G849" s="2" t="s">
+      <c r="G849" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26283,7 +26283,7 @@
       <c r="F850" s="2" t="s">
         <v>1899</v>
       </c>
-      <c r="G850" s="2" t="s">
+      <c r="G850" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26306,7 +26306,7 @@
       <c r="F851" s="2" t="s">
         <v>1900</v>
       </c>
-      <c r="G851" s="2" t="s">
+      <c r="G851" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26329,7 +26329,7 @@
       <c r="F852" s="2" t="s">
         <v>1901</v>
       </c>
-      <c r="G852" s="2" t="s">
+      <c r="G852" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26352,7 +26352,7 @@
       <c r="F853" s="2" t="s">
         <v>1902</v>
       </c>
-      <c r="G853" s="2" t="s">
+      <c r="G853" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26375,7 +26375,7 @@
       <c r="F854" s="2" t="s">
         <v>1903</v>
       </c>
-      <c r="G854" s="2" t="s">
+      <c r="G854" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26398,7 +26398,7 @@
       <c r="F855" s="2" t="s">
         <v>1904</v>
       </c>
-      <c r="G855" s="2" t="s">
+      <c r="G855" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26421,7 +26421,7 @@
       <c r="F856" s="2" t="s">
         <v>1905</v>
       </c>
-      <c r="G856" s="2" t="s">
+      <c r="G856" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26444,7 +26444,7 @@
       <c r="F857" s="2" t="s">
         <v>1906</v>
       </c>
-      <c r="G857" s="2" t="s">
+      <c r="G857" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26467,7 +26467,7 @@
       <c r="F858" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="G858" s="2" t="s">
+      <c r="G858" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26490,7 +26490,7 @@
       <c r="F859" s="2" t="s">
         <v>1908</v>
       </c>
-      <c r="G859" s="2" t="s">
+      <c r="G859" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26513,7 +26513,7 @@
       <c r="F860" s="2" t="s">
         <v>1909</v>
       </c>
-      <c r="G860" s="2" t="s">
+      <c r="G860" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26536,7 +26536,7 @@
       <c r="F861" s="2" t="s">
         <v>1910</v>
       </c>
-      <c r="G861" s="2" t="s">
+      <c r="G861" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26559,7 +26559,7 @@
       <c r="F862" s="2" t="s">
         <v>1911</v>
       </c>
-      <c r="G862" s="2" t="s">
+      <c r="G862" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26582,7 +26582,7 @@
       <c r="F863" s="2" t="s">
         <v>1912</v>
       </c>
-      <c r="G863" s="2" t="s">
+      <c r="G863" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26605,7 +26605,7 @@
       <c r="F864" s="2" t="s">
         <v>1913</v>
       </c>
-      <c r="G864" s="2" t="s">
+      <c r="G864" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26628,7 +26628,7 @@
       <c r="F865" s="2" t="s">
         <v>1914</v>
       </c>
-      <c r="G865" s="2" t="s">
+      <c r="G865" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26651,7 +26651,7 @@
       <c r="F866" s="2" t="s">
         <v>1915</v>
       </c>
-      <c r="G866" s="2" t="s">
+      <c r="G866" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26674,7 +26674,7 @@
       <c r="F867" s="2" t="s">
         <v>1916</v>
       </c>
-      <c r="G867" s="2" t="s">
+      <c r="G867" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26697,7 +26697,7 @@
       <c r="F868" s="2" t="s">
         <v>1917</v>
       </c>
-      <c r="G868" s="2" t="s">
+      <c r="G868" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26720,7 +26720,7 @@
       <c r="F869" s="2" t="s">
         <v>1918</v>
       </c>
-      <c r="G869" s="2" t="s">
+      <c r="G869" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26743,7 +26743,7 @@
       <c r="F870" s="2" t="s">
         <v>1919</v>
       </c>
-      <c r="G870" s="2" t="s">
+      <c r="G870" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26766,7 +26766,7 @@
       <c r="F871" s="2" t="s">
         <v>1920</v>
       </c>
-      <c r="G871" s="2" t="s">
+      <c r="G871" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26789,7 +26789,7 @@
       <c r="F872" s="2" t="s">
         <v>1921</v>
       </c>
-      <c r="G872" s="2" t="s">
+      <c r="G872" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26812,7 +26812,7 @@
       <c r="F873" s="2" t="s">
         <v>1922</v>
       </c>
-      <c r="G873" s="2" t="s">
+      <c r="G873" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26835,7 +26835,7 @@
       <c r="F874" s="2" t="s">
         <v>1923</v>
       </c>
-      <c r="G874" s="2" t="s">
+      <c r="G874" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26858,7 +26858,7 @@
       <c r="F875" s="2" t="s">
         <v>1924</v>
       </c>
-      <c r="G875" s="2" t="s">
+      <c r="G875" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26881,7 +26881,7 @@
       <c r="F876" s="2" t="s">
         <v>1925</v>
       </c>
-      <c r="G876" s="2" t="s">
+      <c r="G876" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26904,7 +26904,7 @@
       <c r="F877" s="2" t="s">
         <v>1926</v>
       </c>
-      <c r="G877" s="2" t="s">
+      <c r="G877" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26927,7 +26927,7 @@
       <c r="F878" s="2" t="s">
         <v>1927</v>
       </c>
-      <c r="G878" s="2" t="s">
+      <c r="G878" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26950,7 +26950,7 @@
       <c r="F879" s="2" t="s">
         <v>1928</v>
       </c>
-      <c r="G879" s="2" t="s">
+      <c r="G879" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26973,7 +26973,7 @@
       <c r="F880" s="2" t="s">
         <v>1929</v>
       </c>
-      <c r="G880" s="2" t="s">
+      <c r="G880" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -26996,7 +26996,7 @@
       <c r="F881" s="2" t="s">
         <v>1930</v>
       </c>
-      <c r="G881" s="2" t="s">
+      <c r="G881" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27019,7 +27019,7 @@
       <c r="F882" s="2" t="s">
         <v>1931</v>
       </c>
-      <c r="G882" s="2" t="s">
+      <c r="G882" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27042,7 +27042,7 @@
       <c r="F883" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="G883" s="2" t="s">
+      <c r="G883" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27065,7 +27065,7 @@
       <c r="F884" s="2" t="s">
         <v>1933</v>
       </c>
-      <c r="G884" s="2" t="s">
+      <c r="G884" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27088,7 +27088,7 @@
       <c r="F885" s="2" t="s">
         <v>1934</v>
       </c>
-      <c r="G885" s="2" t="s">
+      <c r="G885" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27111,7 +27111,7 @@
       <c r="F886" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="G886" s="2" t="s">
+      <c r="G886" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27134,7 +27134,7 @@
       <c r="F887" s="2" t="s">
         <v>1936</v>
       </c>
-      <c r="G887" s="2" t="s">
+      <c r="G887" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27157,7 +27157,7 @@
       <c r="F888" s="2" t="s">
         <v>1937</v>
       </c>
-      <c r="G888" s="2" t="s">
+      <c r="G888" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27180,7 +27180,7 @@
       <c r="F889" s="2" t="s">
         <v>1938</v>
       </c>
-      <c r="G889" s="2" t="s">
+      <c r="G889" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27203,7 +27203,7 @@
       <c r="F890" s="2" t="s">
         <v>1939</v>
       </c>
-      <c r="G890" s="2" t="s">
+      <c r="G890" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27226,7 +27226,7 @@
       <c r="F891" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="G891" s="2" t="s">
+      <c r="G891" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27249,7 +27249,7 @@
       <c r="F892" s="2" t="s">
         <v>1941</v>
       </c>
-      <c r="G892" s="2" t="s">
+      <c r="G892" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27272,7 +27272,7 @@
       <c r="F893" s="2" t="s">
         <v>1942</v>
       </c>
-      <c r="G893" s="2" t="s">
+      <c r="G893" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27295,7 +27295,7 @@
       <c r="F894" s="2" t="s">
         <v>1943</v>
       </c>
-      <c r="G894" s="2" t="s">
+      <c r="G894" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27318,7 +27318,7 @@
       <c r="F895" s="2" t="s">
         <v>1944</v>
       </c>
-      <c r="G895" s="2" t="s">
+      <c r="G895" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27341,7 +27341,7 @@
       <c r="F896" s="2" t="s">
         <v>1945</v>
       </c>
-      <c r="G896" s="2" t="s">
+      <c r="G896" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27364,7 +27364,7 @@
       <c r="F897" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="G897" s="2" t="s">
+      <c r="G897" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27387,7 +27387,7 @@
       <c r="F898" s="2" t="s">
         <v>1947</v>
       </c>
-      <c r="G898" s="2" t="s">
+      <c r="G898" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27410,7 +27410,7 @@
       <c r="F899" s="2" t="s">
         <v>1948</v>
       </c>
-      <c r="G899" s="2" t="s">
+      <c r="G899" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27433,7 +27433,7 @@
       <c r="F900" s="2" t="s">
         <v>1949</v>
       </c>
-      <c r="G900" s="2" t="s">
+      <c r="G900" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27456,7 +27456,7 @@
       <c r="F901" s="2" t="s">
         <v>1950</v>
       </c>
-      <c r="G901" s="2" t="s">
+      <c r="G901" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27479,7 +27479,7 @@
       <c r="F902" s="2" t="s">
         <v>1951</v>
       </c>
-      <c r="G902" s="2" t="s">
+      <c r="G902" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27502,7 +27502,7 @@
       <c r="F903" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="G903" s="2" t="s">
+      <c r="G903" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27525,7 +27525,7 @@
       <c r="F904" s="2" t="s">
         <v>1953</v>
       </c>
-      <c r="G904" s="2" t="s">
+      <c r="G904" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27548,7 +27548,7 @@
       <c r="F905" s="2" t="s">
         <v>1954</v>
       </c>
-      <c r="G905" s="2" t="s">
+      <c r="G905" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27571,7 +27571,7 @@
       <c r="F906" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="G906" s="2" t="s">
+      <c r="G906" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27594,7 +27594,7 @@
       <c r="F907" s="2" t="s">
         <v>1956</v>
       </c>
-      <c r="G907" s="2" t="s">
+      <c r="G907" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27617,7 +27617,7 @@
       <c r="F908" s="2" t="s">
         <v>1957</v>
       </c>
-      <c r="G908" s="2" t="s">
+      <c r="G908" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27640,7 +27640,7 @@
       <c r="F909" s="2" t="s">
         <v>1958</v>
       </c>
-      <c r="G909" s="2" t="s">
+      <c r="G909" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27663,7 +27663,7 @@
       <c r="F910" s="2" t="s">
         <v>1959</v>
       </c>
-      <c r="G910" s="2" t="s">
+      <c r="G910" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27686,7 +27686,7 @@
       <c r="F911" s="2" t="s">
         <v>1960</v>
       </c>
-      <c r="G911" s="2" t="s">
+      <c r="G911" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27709,7 +27709,7 @@
       <c r="F912" s="2" t="s">
         <v>1961</v>
       </c>
-      <c r="G912" s="2" t="s">
+      <c r="G912" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27732,7 +27732,7 @@
       <c r="F913" s="2" t="s">
         <v>1962</v>
       </c>
-      <c r="G913" s="2" t="s">
+      <c r="G913" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27755,7 +27755,7 @@
       <c r="F914" s="2" t="s">
         <v>1963</v>
       </c>
-      <c r="G914" s="2" t="s">
+      <c r="G914" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27778,7 +27778,7 @@
       <c r="F915" s="2" t="s">
         <v>1964</v>
       </c>
-      <c r="G915" s="2" t="s">
+      <c r="G915" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27801,7 +27801,7 @@
       <c r="F916" s="2" t="s">
         <v>1965</v>
       </c>
-      <c r="G916" s="2" t="s">
+      <c r="G916" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27824,7 +27824,7 @@
       <c r="F917" s="2" t="s">
         <v>1966</v>
       </c>
-      <c r="G917" s="2" t="s">
+      <c r="G917" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27847,7 +27847,7 @@
       <c r="F918" s="2" t="s">
         <v>1967</v>
       </c>
-      <c r="G918" s="2" t="s">
+      <c r="G918" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27870,7 +27870,7 @@
       <c r="F919" s="2" t="s">
         <v>1968</v>
       </c>
-      <c r="G919" s="2" t="s">
+      <c r="G919" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27893,7 +27893,7 @@
       <c r="F920" s="2" t="s">
         <v>1969</v>
       </c>
-      <c r="G920" s="2" t="s">
+      <c r="G920" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27916,7 +27916,7 @@
       <c r="F921" s="2" t="s">
         <v>1970</v>
       </c>
-      <c r="G921" s="2" t="s">
+      <c r="G921" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27939,7 +27939,7 @@
       <c r="F922" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="G922" s="2" t="s">
+      <c r="G922" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27962,7 +27962,7 @@
       <c r="F923" s="2" t="s">
         <v>1972</v>
       </c>
-      <c r="G923" s="2" t="s">
+      <c r="G923" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -27985,7 +27985,7 @@
       <c r="F924" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="G924" s="2" t="s">
+      <c r="G924" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28008,7 +28008,7 @@
       <c r="F925" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="G925" s="2" t="s">
+      <c r="G925" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28031,7 +28031,7 @@
       <c r="F926" s="2" t="s">
         <v>1975</v>
       </c>
-      <c r="G926" s="2" t="s">
+      <c r="G926" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28054,7 +28054,7 @@
       <c r="F927" s="2" t="s">
         <v>1976</v>
       </c>
-      <c r="G927" s="2" t="s">
+      <c r="G927" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28077,7 +28077,7 @@
       <c r="F928" s="2" t="s">
         <v>1977</v>
       </c>
-      <c r="G928" s="2" t="s">
+      <c r="G928" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28100,7 +28100,7 @@
       <c r="F929" s="2" t="s">
         <v>1978</v>
       </c>
-      <c r="G929" s="2" t="s">
+      <c r="G929" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28123,7 +28123,7 @@
       <c r="F930" s="2" t="s">
         <v>1979</v>
       </c>
-      <c r="G930" s="2" t="s">
+      <c r="G930" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28146,7 +28146,7 @@
       <c r="F931" s="2" t="s">
         <v>1980</v>
       </c>
-      <c r="G931" s="2" t="s">
+      <c r="G931" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28169,7 +28169,7 @@
       <c r="F932" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="G932" s="2" t="s">
+      <c r="G932" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28192,7 +28192,7 @@
       <c r="F933" s="2" t="s">
         <v>1982</v>
       </c>
-      <c r="G933" s="2" t="s">
+      <c r="G933" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28215,7 +28215,7 @@
       <c r="F934" s="2" t="s">
         <v>1983</v>
       </c>
-      <c r="G934" s="2" t="s">
+      <c r="G934" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28238,7 +28238,7 @@
       <c r="F935" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="G935" s="2" t="s">
+      <c r="G935" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28261,7 +28261,7 @@
       <c r="F936" s="2" t="s">
         <v>1985</v>
       </c>
-      <c r="G936" s="2" t="s">
+      <c r="G936" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28284,7 +28284,7 @@
       <c r="F937" s="2" t="s">
         <v>1986</v>
       </c>
-      <c r="G937" s="2" t="s">
+      <c r="G937" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28307,7 +28307,7 @@
       <c r="F938" s="2" t="s">
         <v>1987</v>
       </c>
-      <c r="G938" s="2" t="s">
+      <c r="G938" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28330,7 +28330,7 @@
       <c r="F939" s="2" t="s">
         <v>1988</v>
       </c>
-      <c r="G939" s="2" t="s">
+      <c r="G939" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28353,7 +28353,7 @@
       <c r="F940" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="G940" s="2" t="s">
+      <c r="G940" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28376,7 +28376,7 @@
       <c r="F941" s="2" t="s">
         <v>1990</v>
       </c>
-      <c r="G941" s="2" t="s">
+      <c r="G941" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28399,7 +28399,7 @@
       <c r="F942" s="2" t="s">
         <v>1991</v>
       </c>
-      <c r="G942" s="2" t="s">
+      <c r="G942" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28422,7 +28422,7 @@
       <c r="F943" s="2" t="s">
         <v>1992</v>
       </c>
-      <c r="G943" s="2" t="s">
+      <c r="G943" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28445,7 +28445,7 @@
       <c r="F944" s="2" t="s">
         <v>1993</v>
       </c>
-      <c r="G944" s="2" t="s">
+      <c r="G944" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28468,7 +28468,7 @@
       <c r="F945" s="2" t="s">
         <v>1994</v>
       </c>
-      <c r="G945" s="2" t="s">
+      <c r="G945" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28491,7 +28491,7 @@
       <c r="F946" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="G946" s="2" t="s">
+      <c r="G946" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28514,7 +28514,7 @@
       <c r="F947" s="2" t="s">
         <v>1996</v>
       </c>
-      <c r="G947" s="2" t="s">
+      <c r="G947" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28537,7 +28537,7 @@
       <c r="F948" s="2" t="s">
         <v>1997</v>
       </c>
-      <c r="G948" s="2" t="s">
+      <c r="G948" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28560,7 +28560,7 @@
       <c r="F949" s="2" t="s">
         <v>1998</v>
       </c>
-      <c r="G949" s="2" t="s">
+      <c r="G949" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28583,7 +28583,7 @@
       <c r="F950" s="2" t="s">
         <v>1999</v>
       </c>
-      <c r="G950" s="2" t="s">
+      <c r="G950" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28606,7 +28606,7 @@
       <c r="F951" s="2" t="s">
         <v>2000</v>
       </c>
-      <c r="G951" s="2" t="s">
+      <c r="G951" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28629,7 +28629,7 @@
       <c r="F952" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="G952" s="2" t="s">
+      <c r="G952" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28652,7 +28652,7 @@
       <c r="F953" s="2" t="s">
         <v>2002</v>
       </c>
-      <c r="G953" s="2" t="s">
+      <c r="G953" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28675,7 +28675,7 @@
       <c r="F954" s="2" t="s">
         <v>2003</v>
       </c>
-      <c r="G954" s="2" t="s">
+      <c r="G954" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28698,7 +28698,7 @@
       <c r="F955" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="G955" s="2" t="s">
+      <c r="G955" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28721,7 +28721,7 @@
       <c r="F956" s="2" t="s">
         <v>2005</v>
       </c>
-      <c r="G956" s="2" t="s">
+      <c r="G956" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28744,7 +28744,7 @@
       <c r="F957" s="2" t="s">
         <v>2006</v>
       </c>
-      <c r="G957" s="2" t="s">
+      <c r="G957" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28767,7 +28767,7 @@
       <c r="F958" s="2" t="s">
         <v>2007</v>
       </c>
-      <c r="G958" s="2" t="s">
+      <c r="G958" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28790,7 +28790,7 @@
       <c r="F959" s="2" t="s">
         <v>2008</v>
       </c>
-      <c r="G959" s="2" t="s">
+      <c r="G959" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28813,7 +28813,7 @@
       <c r="F960" s="2" t="s">
         <v>2009</v>
       </c>
-      <c r="G960" s="2" t="s">
+      <c r="G960" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28836,7 +28836,7 @@
       <c r="F961" s="2" t="s">
         <v>2010</v>
       </c>
-      <c r="G961" s="2" t="s">
+      <c r="G961" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28859,7 +28859,7 @@
       <c r="F962" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="G962" s="2" t="s">
+      <c r="G962" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28882,7 +28882,7 @@
       <c r="F963" s="2" t="s">
         <v>2012</v>
       </c>
-      <c r="G963" s="2" t="s">
+      <c r="G963" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28905,7 +28905,7 @@
       <c r="F964" s="2" t="s">
         <v>2013</v>
       </c>
-      <c r="G964" s="2" t="s">
+      <c r="G964" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28928,7 +28928,7 @@
       <c r="F965" s="2" t="s">
         <v>2014</v>
       </c>
-      <c r="G965" s="2" t="s">
+      <c r="G965" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28951,7 +28951,7 @@
       <c r="F966" s="2" t="s">
         <v>2015</v>
       </c>
-      <c r="G966" s="2" t="s">
+      <c r="G966" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28974,7 +28974,7 @@
       <c r="F967" s="2" t="s">
         <v>2016</v>
       </c>
-      <c r="G967" s="2" t="s">
+      <c r="G967" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28997,7 +28997,7 @@
       <c r="F968" s="2" t="s">
         <v>2017</v>
       </c>
-      <c r="G968" s="2" t="s">
+      <c r="G968" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29020,7 +29020,7 @@
       <c r="F969" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="G969" s="2" t="s">
+      <c r="G969" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29043,7 +29043,7 @@
       <c r="F970" s="2" t="s">
         <v>2019</v>
       </c>
-      <c r="G970" s="2" t="s">
+      <c r="G970" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29066,7 +29066,7 @@
       <c r="F971" s="2" t="s">
         <v>2020</v>
       </c>
-      <c r="G971" s="2" t="s">
+      <c r="G971" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29089,7 +29089,7 @@
       <c r="F972" s="2" t="s">
         <v>2021</v>
       </c>
-      <c r="G972" s="2" t="s">
+      <c r="G972" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29112,7 +29112,7 @@
       <c r="F973" s="2" t="s">
         <v>2022</v>
       </c>
-      <c r="G973" s="2" t="s">
+      <c r="G973" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29135,7 +29135,7 @@
       <c r="F974" s="2" t="s">
         <v>2023</v>
       </c>
-      <c r="G974" s="2" t="s">
+      <c r="G974" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29158,7 +29158,7 @@
       <c r="F975" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="G975" s="2" t="s">
+      <c r="G975" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29181,7 +29181,7 @@
       <c r="F976" s="2" t="s">
         <v>2025</v>
       </c>
-      <c r="G976" s="2" t="s">
+      <c r="G976" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29204,7 +29204,7 @@
       <c r="F977" s="2" t="s">
         <v>2026</v>
       </c>
-      <c r="G977" s="2" t="s">
+      <c r="G977" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29227,7 +29227,7 @@
       <c r="F978" s="2" t="s">
         <v>2027</v>
       </c>
-      <c r="G978" s="2" t="s">
+      <c r="G978" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29250,7 +29250,7 @@
       <c r="F979" s="2" t="s">
         <v>2028</v>
       </c>
-      <c r="G979" s="2" t="s">
+      <c r="G979" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29273,7 +29273,7 @@
       <c r="F980" s="2" t="s">
         <v>2029</v>
       </c>
-      <c r="G980" s="2" t="s">
+      <c r="G980" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29296,7 +29296,7 @@
       <c r="F981" s="2" t="s">
         <v>2030</v>
       </c>
-      <c r="G981" s="2" t="s">
+      <c r="G981" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29319,7 +29319,7 @@
       <c r="F982" s="2" t="s">
         <v>2031</v>
       </c>
-      <c r="G982" s="2" t="s">
+      <c r="G982" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29342,7 +29342,7 @@
       <c r="F983" s="2" t="s">
         <v>2032</v>
       </c>
-      <c r="G983" s="2" t="s">
+      <c r="G983" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29365,7 +29365,7 @@
       <c r="F984" s="2" t="s">
         <v>2033</v>
       </c>
-      <c r="G984" s="2" t="s">
+      <c r="G984" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29388,7 +29388,7 @@
       <c r="F985" s="2" t="s">
         <v>2034</v>
       </c>
-      <c r="G985" s="2" t="s">
+      <c r="G985" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29411,7 +29411,7 @@
       <c r="F986" s="2" t="s">
         <v>2035</v>
       </c>
-      <c r="G986" s="2" t="s">
+      <c r="G986" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29434,7 +29434,7 @@
       <c r="F987" s="2" t="s">
         <v>2036</v>
       </c>
-      <c r="G987" s="2" t="s">
+      <c r="G987" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29457,7 +29457,7 @@
       <c r="F988" s="2" t="s">
         <v>2037</v>
       </c>
-      <c r="G988" s="2" t="s">
+      <c r="G988" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29480,7 +29480,7 @@
       <c r="F989" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="G989" s="2" t="s">
+      <c r="G989" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29503,7 +29503,7 @@
       <c r="F990" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="G990" s="2" t="s">
+      <c r="G990" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29526,7 +29526,7 @@
       <c r="F991" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="G991" s="2" t="s">
+      <c r="G991" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29549,7 +29549,7 @@
       <c r="F992" s="2" t="s">
         <v>2041</v>
       </c>
-      <c r="G992" s="2" t="s">
+      <c r="G992" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29572,7 +29572,7 @@
       <c r="F993" s="2" t="s">
         <v>2042</v>
       </c>
-      <c r="G993" s="2" t="s">
+      <c r="G993" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29595,7 +29595,7 @@
       <c r="F994" s="2" t="s">
         <v>2043</v>
       </c>
-      <c r="G994" s="2" t="s">
+      <c r="G994" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29618,7 +29618,7 @@
       <c r="F995" s="2" t="s">
         <v>2044</v>
       </c>
-      <c r="G995" s="2" t="s">
+      <c r="G995" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29641,7 +29641,7 @@
       <c r="F996" s="2" t="s">
         <v>2045</v>
       </c>
-      <c r="G996" s="2" t="s">
+      <c r="G996" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29664,7 +29664,7 @@
       <c r="F997" s="2" t="s">
         <v>2046</v>
       </c>
-      <c r="G997" s="2" t="s">
+      <c r="G997" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29687,7 +29687,7 @@
       <c r="F998" s="2" t="s">
         <v>2047</v>
       </c>
-      <c r="G998" s="2" t="s">
+      <c r="G998" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29710,7 +29710,7 @@
       <c r="F999" s="2" t="s">
         <v>2048</v>
       </c>
-      <c r="G999" s="2" t="s">
+      <c r="G999" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29733,7 +29733,7 @@
       <c r="F1000" s="2" t="s">
         <v>2049</v>
       </c>
-      <c r="G1000" s="2" t="s">
+      <c r="G1000" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29756,7 +29756,7 @@
       <c r="F1001" s="2" t="s">
         <v>2050</v>
       </c>
-      <c r="G1001" s="2" t="s">
+      <c r="G1001" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29779,7 +29779,7 @@
       <c r="F1002" s="2" t="s">
         <v>2051</v>
       </c>
-      <c r="G1002" s="2" t="s">
+      <c r="G1002" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29802,7 +29802,7 @@
       <c r="F1003" s="2" t="s">
         <v>2052</v>
       </c>
-      <c r="G1003" s="2" t="s">
+      <c r="G1003" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29825,7 +29825,7 @@
       <c r="F1004" s="2" t="s">
         <v>2053</v>
       </c>
-      <c r="G1004" s="2" t="s">
+      <c r="G1004" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29848,7 +29848,7 @@
       <c r="F1005" s="2" t="s">
         <v>2054</v>
       </c>
-      <c r="G1005" s="2" t="s">
+      <c r="G1005" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29871,7 +29871,7 @@
       <c r="F1006" s="2" t="s">
         <v>2055</v>
       </c>
-      <c r="G1006" s="2" t="s">
+      <c r="G1006" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29894,7 +29894,7 @@
       <c r="F1007" s="2" t="s">
         <v>2056</v>
       </c>
-      <c r="G1007" s="2" t="s">
+      <c r="G1007" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29917,7 +29917,7 @@
       <c r="F1008" s="2" t="s">
         <v>2057</v>
       </c>
-      <c r="G1008" s="2" t="s">
+      <c r="G1008" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29940,7 +29940,7 @@
       <c r="F1009" s="2" t="s">
         <v>2058</v>
       </c>
-      <c r="G1009" s="2" t="s">
+      <c r="G1009" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29963,7 +29963,7 @@
       <c r="F1010" s="2" t="s">
         <v>2059</v>
       </c>
-      <c r="G1010" s="2" t="s">
+      <c r="G1010" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29986,7 +29986,7 @@
       <c r="F1011" s="2" t="s">
         <v>2060</v>
       </c>
-      <c r="G1011" s="2" t="s">
+      <c r="G1011" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30009,7 +30009,7 @@
       <c r="F1012" s="2" t="s">
         <v>2061</v>
       </c>
-      <c r="G1012" s="2" t="s">
+      <c r="G1012" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30032,7 +30032,7 @@
       <c r="F1013" s="2" t="s">
         <v>2062</v>
       </c>
-      <c r="G1013" s="2" t="s">
+      <c r="G1013" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30055,7 +30055,7 @@
       <c r="F1014" s="2" t="s">
         <v>2063</v>
       </c>
-      <c r="G1014" s="2" t="s">
+      <c r="G1014" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30078,7 +30078,7 @@
       <c r="F1015" s="2" t="s">
         <v>2064</v>
       </c>
-      <c r="G1015" s="2" t="s">
+      <c r="G1015" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30101,7 +30101,7 @@
       <c r="F1016" s="2" t="s">
         <v>2065</v>
       </c>
-      <c r="G1016" s="2" t="s">
+      <c r="G1016" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30124,7 +30124,7 @@
       <c r="F1017" s="2" t="s">
         <v>2066</v>
       </c>
-      <c r="G1017" s="2" t="s">
+      <c r="G1017" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30147,7 +30147,7 @@
       <c r="F1018" s="2" t="s">
         <v>2067</v>
       </c>
-      <c r="G1018" s="2" t="s">
+      <c r="G1018" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30170,7 +30170,7 @@
       <c r="F1019" s="2" t="s">
         <v>2068</v>
       </c>
-      <c r="G1019" s="2" t="s">
+      <c r="G1019" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30193,7 +30193,7 @@
       <c r="F1020" s="2" t="s">
         <v>2069</v>
       </c>
-      <c r="G1020" s="2" t="s">
+      <c r="G1020" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30216,7 +30216,7 @@
       <c r="F1021" s="2" t="s">
         <v>2070</v>
       </c>
-      <c r="G1021" s="2" t="s">
+      <c r="G1021" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30239,7 +30239,7 @@
       <c r="F1022" s="2" t="s">
         <v>2071</v>
       </c>
-      <c r="G1022" s="2" t="s">
+      <c r="G1022" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30262,7 +30262,7 @@
       <c r="F1023" s="2" t="s">
         <v>2072</v>
       </c>
-      <c r="G1023" s="2" t="s">
+      <c r="G1023" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30285,7 +30285,7 @@
       <c r="F1024" s="2" t="s">
         <v>2073</v>
       </c>
-      <c r="G1024" s="2" t="s">
+      <c r="G1024" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30308,7 +30308,7 @@
       <c r="F1025" s="2" t="s">
         <v>2074</v>
       </c>
-      <c r="G1025" s="2" t="s">
+      <c r="G1025" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30331,7 +30331,7 @@
       <c r="F1026" s="2" t="s">
         <v>2075</v>
       </c>
-      <c r="G1026" s="2" t="s">
+      <c r="G1026" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30354,7 +30354,7 @@
       <c r="F1027" s="2" t="s">
         <v>2076</v>
       </c>
-      <c r="G1027" s="2" t="s">
+      <c r="G1027" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30377,7 +30377,7 @@
       <c r="F1028" s="2" t="s">
         <v>2077</v>
       </c>
-      <c r="G1028" s="2" t="s">
+      <c r="G1028" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30400,7 +30400,7 @@
       <c r="F1029" s="2" t="s">
         <v>2078</v>
       </c>
-      <c r="G1029" s="2" t="s">
+      <c r="G1029" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30423,7 +30423,7 @@
       <c r="F1030" s="2" t="s">
         <v>2079</v>
       </c>
-      <c r="G1030" s="2" t="s">
+      <c r="G1030" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30446,7 +30446,7 @@
       <c r="F1031" s="2" t="s">
         <v>2080</v>
       </c>
-      <c r="G1031" s="2" t="s">
+      <c r="G1031" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30469,7 +30469,7 @@
       <c r="F1032" s="2" t="s">
         <v>2081</v>
       </c>
-      <c r="G1032" s="2" t="s">
+      <c r="G1032" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30492,7 +30492,7 @@
       <c r="F1033" s="2" t="s">
         <v>2082</v>
       </c>
-      <c r="G1033" s="2" t="s">
+      <c r="G1033" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30515,7 +30515,7 @@
       <c r="F1034" s="2" t="s">
         <v>2083</v>
       </c>
-      <c r="G1034" s="2" t="s">
+      <c r="G1034" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30538,7 +30538,7 @@
       <c r="F1035" s="2" t="s">
         <v>2084</v>
       </c>
-      <c r="G1035" s="2" t="s">
+      <c r="G1035" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30561,7 +30561,7 @@
       <c r="F1036" s="2" t="s">
         <v>2085</v>
       </c>
-      <c r="G1036" s="2" t="s">
+      <c r="G1036" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30584,7 +30584,7 @@
       <c r="F1037" s="2" t="s">
         <v>2086</v>
       </c>
-      <c r="G1037" s="2" t="s">
+      <c r="G1037" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30607,7 +30607,7 @@
       <c r="F1038" s="2" t="s">
         <v>2087</v>
       </c>
-      <c r="G1038" s="2" t="s">
+      <c r="G1038" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30630,7 +30630,7 @@
       <c r="F1039" s="2" t="s">
         <v>2088</v>
       </c>
-      <c r="G1039" s="2" t="s">
+      <c r="G1039" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30653,7 +30653,7 @@
       <c r="F1040" s="2" t="s">
         <v>2089</v>
       </c>
-      <c r="G1040" s="2" t="s">
+      <c r="G1040" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30676,7 +30676,7 @@
       <c r="F1041" s="2" t="s">
         <v>2090</v>
       </c>
-      <c r="G1041" s="2" t="s">
+      <c r="G1041" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30699,7 +30699,7 @@
       <c r="F1042" s="2" t="s">
         <v>2091</v>
       </c>
-      <c r="G1042" s="2" t="s">
+      <c r="G1042" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30722,7 +30722,7 @@
       <c r="F1043" s="2" t="s">
         <v>2092</v>
       </c>
-      <c r="G1043" s="2" t="s">
+      <c r="G1043" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30745,7 +30745,7 @@
       <c r="F1044" s="2" t="s">
         <v>2093</v>
       </c>
-      <c r="G1044" s="2" t="s">
+      <c r="G1044" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -30768,7 +30768,7 @@
       <c r="F1045" s="2" t="s">
         <v>2094</v>
       </c>
-      <c r="G1045" s="2" t="s">
+      <c r="G1045" t="s">
         <v>2097</v>
       </c>
     </row>

--- a/temp_doc/PESERTA UJIAN FIX ADMIN.xlsx
+++ b/temp_doc/PESERTA UJIAN FIX ADMIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2534FA5C-2A8F-4E42-9442-CBCE9E29FBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9BD72D-B7E3-6C40-86A8-C6FA7AAB6700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
   </bookViews>
@@ -9422,7 +9422,7 @@
     <t>2039218064</t>
   </si>
   <si>
-    <t>SAS2023TH#</t>
+    <t>SAS2023TH*</t>
   </si>
 </sst>
 </file>
@@ -9806,7 +9806,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G1040"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/temp_doc/PESERTA UJIAN FIX ADMIN.xlsx
+++ b/temp_doc/PESERTA UJIAN FIX ADMIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9BD72D-B7E3-6C40-86A8-C6FA7AAB6700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6422810-3386-B644-930F-C89A120676BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
   </bookViews>
@@ -9422,7 +9422,7 @@
     <t>2039218064</t>
   </si>
   <si>
-    <t>SAS2023TH*</t>
+    <t>SAS2023TH</t>
   </si>
 </sst>
 </file>
@@ -9806,7 +9806,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G1040"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
